--- a/results_summary.xlsx
+++ b/results_summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\E_stuff\Skola\Vyska\4_rocnik\BIA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\4_rocnik\BIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04DFA6F4-1774-40FB-8BD6-9BB03CE8FAC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F35C8F-F655-4011-AB61-00A16B8CA12F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="4680" windowWidth="28800" windowHeight="15345" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sphere" sheetId="1" r:id="rId1"/>
@@ -54,136 +54,136 @@
     <t>0.0000 / 0.0000</t>
   </si>
   <si>
-    <t>153.1813 / 17.1579</t>
+    <t>153.0012 / 17.4942</t>
   </si>
   <si>
-    <t>0.0579 / 0.1741</t>
+    <t>0.0265 / 0.0197</t>
   </si>
   <si>
-    <t>29.4451 / 6.1112</t>
+    <t>29.7024 / 3.9921</t>
   </si>
   <si>
-    <t>1.9605 / 0.2185</t>
+    <t>2.9045 / 0.2845</t>
   </si>
   <si>
-    <t>0.0021 / 0.0011</t>
+    <t>0.0020 / 0.0009</t>
   </si>
   <si>
-    <t>8.9090 / 0.3295</t>
+    <t>8.9767 / 0.3829</t>
   </si>
   <si>
-    <t>1.9746 / 0.5627</t>
+    <t>2.0186 / 0.5727</t>
   </si>
   <si>
-    <t>5.2513 / 0.4029</t>
+    <t>5.2579 / 0.4140</t>
   </si>
   <si>
-    <t>2.3315 / 0.1266</t>
+    <t>2.7422 / 0.1308</t>
   </si>
   <si>
-    <t>164.2450 / 14.2048</t>
+    <t>158.5047 / 25.5773</t>
   </si>
   <si>
-    <t>406.3968 / 21.4624</t>
+    <t>406.7138 / 21.8056</t>
   </si>
   <si>
-    <t>83.7599 / 18.6369</t>
+    <t>78.9529 / 19.3081</t>
   </si>
   <si>
-    <t>240.4677 / 21.0312</t>
+    <t>241.5431 / 14.4138</t>
   </si>
   <si>
-    <t>167.5690 / 10.9501</t>
+    <t>194.4800 / 10.6671</t>
   </si>
   <si>
-    <t>28.8114 / 0.0843</t>
+    <t>28.7931 / 0.0779</t>
   </si>
   <si>
-    <t>195632.8847 / 37891.4790</t>
+    <t>186255.8195 / 39184.1658</t>
   </si>
   <si>
-    <t>93.8677 / 95.8256</t>
+    <t>180.9965 / 469.5869</t>
   </si>
   <si>
-    <t>8057.3190 / 3227.9294</t>
+    <t>8552.3146 / 3097.3046</t>
   </si>
   <si>
-    <t>228.2377 / 27.9854</t>
+    <t>380.7110 / 78.4762</t>
   </si>
   <si>
-    <t>0.0048 / 0.0236</t>
+    <t>0.0004 / 0.0020</t>
   </si>
   <si>
-    <t>1.0381 / 0.0059</t>
+    <t>1.0390 / 0.0058</t>
   </si>
   <si>
-    <t>0.0387 / 0.1020</t>
+    <t>0.0389 / 0.0795</t>
   </si>
   <si>
-    <t>0.7332 / 0.0689</t>
+    <t>0.7474 / 0.0920</t>
   </si>
   <si>
-    <t>0.0947 / 0.0129</t>
+    <t>0.1650 / 0.0229</t>
   </si>
   <si>
-    <t>12460.6319 / 3.4993</t>
+    <t>12459.9096 / 3.0006</t>
   </si>
   <si>
-    <t>12488.1835 / 6.2392</t>
+    <t>12488.0138 / 6.6575</t>
   </si>
   <si>
-    <t>12464.0927 / 10.2772</t>
+    <t>12460.1502 / 8.5732</t>
   </si>
   <si>
-    <t>12499.6745 / 11.3571</t>
+    <t>12499.3907 / 11.8558</t>
   </si>
   <si>
-    <t>12451.7933 / 0.1086</t>
+    <t>12505.8560 / 5.3527</t>
   </si>
   <si>
-    <t>1.4257 / 0.1779</t>
+    <t>1.3878 / 0.2664</t>
   </si>
   <si>
-    <t>45.8398 / 6.5487</t>
+    <t>49.2020 / 5.5921</t>
   </si>
   <si>
-    <t>2.7523 / 1.5377</t>
+    <t>2.7801 / 1.4760</t>
   </si>
   <si>
-    <t>9.8857 / 3.0194</t>
+    <t>10.8407 / 3.4661</t>
   </si>
   <si>
-    <t>0.8456 / 0.0523</t>
+    <t>1.3011 / 0.1587</t>
   </si>
   <si>
-    <t>-5.9881 / 0.5332</t>
+    <t>-6.2392 / 0.5984</t>
   </si>
   <si>
-    <t>-6.3059 / 0.4849</t>
+    <t>-6.3397 / 0.4784</t>
   </si>
   <si>
-    <t>-10.6200 / 1.8813</t>
+    <t>-10.1991 / 1.6928</t>
   </si>
   <si>
-    <t>-6.2131 / 0.7924</t>
+    <t>-6.1453 / 0.7761</t>
   </si>
   <si>
-    <t>-9.7793 / 0.7484</t>
+    <t>-5.7538 / 0.6903</t>
   </si>
   <si>
-    <t>59.4837 / 19.2643</t>
+    <t>58.1803 / 18.6703</t>
   </si>
   <si>
-    <t>293.8416 / 50.8622</t>
+    <t>300.7688 / 57.6223</t>
   </si>
   <si>
-    <t>64.0451 / 20.9833</t>
+    <t>56.2282 / 22.8889</t>
   </si>
   <si>
-    <t>64.9720 / 20.8093</t>
+    <t>63.3714 / 16.2184</t>
   </si>
   <si>
-    <t>6.5433 / 0.9260</t>
+    <t>14.3031 / 3.7839</t>
   </si>
 </sst>
 </file>
@@ -553,7 +553,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -590,19 +592,19 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.123606571457319E-5</v>
+        <v>4.1092060016273444E-6</v>
       </c>
       <c r="C2">
-        <v>145.20126463984681</v>
+        <v>147.39525816212199</v>
       </c>
       <c r="D2">
-        <v>4.4771213504459168E-3</v>
+        <v>1.3007847723209939E-2</v>
       </c>
       <c r="E2">
-        <v>26.043285656148889</v>
+        <v>36.289414918025628</v>
       </c>
       <c r="F2">
-        <v>2.09332532726738</v>
+        <v>2.5552057874753529</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -610,19 +612,19 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5.4536703011143932E-6</v>
+        <v>6.9331463655998417E-6</v>
       </c>
       <c r="C3">
-        <v>167.09897914985959</v>
+        <v>176.25061110593151</v>
       </c>
       <c r="D3">
-        <v>3.2116578450377443E-2</v>
+        <v>1.170127278899818E-2</v>
       </c>
       <c r="E3">
-        <v>39.186894735685087</v>
+        <v>30.4247050919233</v>
       </c>
       <c r="F3">
-        <v>1.8353362152888231</v>
+        <v>2.6863502605292231</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -630,19 +632,19 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>6.4954897354274556E-6</v>
+        <v>8.7714545410005344E-6</v>
       </c>
       <c r="C4">
-        <v>154.33328545390961</v>
+        <v>154.9827674040896</v>
       </c>
       <c r="D4">
-        <v>4.9203373204266421E-3</v>
+        <v>5.2799232964623147E-2</v>
       </c>
       <c r="E4">
-        <v>28.015192789848641</v>
+        <v>23.05786383232175</v>
       </c>
       <c r="F4">
-        <v>1.8075289152487339</v>
+        <v>3.2555182827916189</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -650,19 +652,19 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1.756107229555619E-6</v>
+        <v>2.1809468357063579E-5</v>
       </c>
       <c r="C5">
-        <v>143.72809376533601</v>
+        <v>158.40299202255159</v>
       </c>
       <c r="D5">
-        <v>0.97215755630501677</v>
+        <v>4.1294529871474424E-3</v>
       </c>
       <c r="E5">
-        <v>39.543726200565487</v>
+        <v>26.748684507870411</v>
       </c>
       <c r="F5">
-        <v>2.1396365681535849</v>
+        <v>2.4583166885790209</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -670,19 +672,19 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2.9364387761413029E-6</v>
+        <v>4.1130256584356493E-6</v>
       </c>
       <c r="C6">
-        <v>160.9205443686254</v>
+        <v>153.68746313896389</v>
       </c>
       <c r="D6">
-        <v>1.497851281822753E-2</v>
+        <v>1.9486482542236911E-2</v>
       </c>
       <c r="E6">
-        <v>28.342178940644921</v>
+        <v>26.82993745730775</v>
       </c>
       <c r="F6">
-        <v>2.053428895325728</v>
+        <v>2.6527067661496981</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -690,19 +692,19 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1.58350109093177E-6</v>
+        <v>1.381248042436223E-5</v>
       </c>
       <c r="C7">
-        <v>132.46752249893879</v>
+        <v>172.34570342794049</v>
       </c>
       <c r="D7">
-        <v>5.38402036690245E-3</v>
+        <v>5.4166070592195283E-2</v>
       </c>
       <c r="E7">
-        <v>22.98232064054012</v>
+        <v>28.2254444554199</v>
       </c>
       <c r="F7">
-        <v>1.686543551930066</v>
+        <v>2.648990235184117</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -710,19 +712,19 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>3.9290139237771034E-6</v>
+        <v>5.7299685020598019E-6</v>
       </c>
       <c r="C8">
-        <v>175.04141488187511</v>
+        <v>164.31387952289779</v>
       </c>
       <c r="D8">
-        <v>6.5577997175437766E-3</v>
+        <v>2.2129571537584269E-2</v>
       </c>
       <c r="E8">
-        <v>24.59011486993171</v>
+        <v>23.783886214787419</v>
       </c>
       <c r="F8">
-        <v>1.85119779974722</v>
+        <v>2.7312820915485529</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -730,19 +732,19 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>8.3415654932312908E-6</v>
+        <v>1.4771713396861821E-5</v>
       </c>
       <c r="C9">
-        <v>161.53141964030411</v>
+        <v>158.2782321044063</v>
       </c>
       <c r="D9">
-        <v>0.12914084046245011</v>
+        <v>2.0352800310679368E-2</v>
       </c>
       <c r="E9">
-        <v>28.56982585046779</v>
+        <v>24.352570584236759</v>
       </c>
       <c r="F9">
-        <v>1.6657953491040149</v>
+        <v>3.2719547206798838</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -750,19 +752,19 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2.2986560731148038E-6</v>
+        <v>8.9777586904776407E-6</v>
       </c>
       <c r="C10">
-        <v>141.8034183935934</v>
+        <v>139.71673381184721</v>
       </c>
       <c r="D10">
-        <v>1.768190325386302E-2</v>
+        <v>6.4508522427335294E-3</v>
       </c>
       <c r="E10">
-        <v>21.72532788753022</v>
+        <v>30.995935952041979</v>
       </c>
       <c r="F10">
-        <v>1.731250113538477</v>
+        <v>2.9499915858997539</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -770,19 +772,19 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>3.4624713317019948E-6</v>
+        <v>1.4025632736223349E-5</v>
       </c>
       <c r="C11">
-        <v>127.41773686006211</v>
+        <v>138.74839293862951</v>
       </c>
       <c r="D11">
-        <v>0.18523422924236671</v>
+        <v>5.5663846805891343E-2</v>
       </c>
       <c r="E11">
-        <v>27.006789774915688</v>
+        <v>29.66769824181333</v>
       </c>
       <c r="F11">
-        <v>1.917666345691895</v>
+        <v>2.7939243549856898</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -790,19 +792,19 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>3.789085070396719E-6</v>
+        <v>3.1064523621539492E-5</v>
       </c>
       <c r="C12">
-        <v>168.6787510098477</v>
+        <v>156.78320452892689</v>
       </c>
       <c r="D12">
-        <v>2.0272506273131961E-2</v>
+        <v>1.231804064157652E-2</v>
       </c>
       <c r="E12">
-        <v>23.921436728039811</v>
+        <v>32.198216031807682</v>
       </c>
       <c r="F12">
-        <v>2.3413599170354771</v>
+        <v>3.090589637295809</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -810,19 +812,19 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>9.2359119104006366E-6</v>
+        <v>2.0033476226041849E-6</v>
       </c>
       <c r="C13">
-        <v>180.70735901793361</v>
+        <v>121.6975815153012</v>
       </c>
       <c r="D13">
-        <v>1.5291312361402701E-2</v>
+        <v>3.9417038351195637E-2</v>
       </c>
       <c r="E13">
-        <v>24.404226296094361</v>
+        <v>29.751044410397672</v>
       </c>
       <c r="F13">
-        <v>2.349611960147151</v>
+        <v>2.913842874734148</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -830,19 +832,19 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1.7288168405854039E-6</v>
+        <v>5.9676550385674301E-6</v>
       </c>
       <c r="C14">
-        <v>148.5729045117867</v>
+        <v>172.95191364874989</v>
       </c>
       <c r="D14">
-        <v>1.7266299631085918E-2</v>
+        <v>1.0774529387205011E-2</v>
       </c>
       <c r="E14">
-        <v>32.32153656622728</v>
+        <v>20.978227669444681</v>
       </c>
       <c r="F14">
-        <v>1.944118676963789</v>
+        <v>2.9510813605555302</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -850,19 +852,19 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>6.6136594982533824E-6</v>
+        <v>8.1829421810200692E-6</v>
       </c>
       <c r="C15">
-        <v>143.49255639111331</v>
+        <v>135.2960433100927</v>
       </c>
       <c r="D15">
-        <v>1.130007995197322E-2</v>
+        <v>1.9827311092299581E-2</v>
       </c>
       <c r="E15">
-        <v>29.377385751946029</v>
+        <v>26.348656865753529</v>
       </c>
       <c r="F15">
-        <v>2.011788690694297</v>
+        <v>3.0914535035711621</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -870,19 +872,19 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>2.0080799509616409E-6</v>
+        <v>1.2526722262039541E-5</v>
       </c>
       <c r="C16">
-        <v>149.95163371017449</v>
+        <v>198.87505117437169</v>
       </c>
       <c r="D16">
-        <v>9.0026533386649774E-3</v>
+        <v>8.7737141985965942E-3</v>
       </c>
       <c r="E16">
-        <v>28.501027477684129</v>
+        <v>31.93458815792318</v>
       </c>
       <c r="F16">
-        <v>2.274116313379805</v>
+        <v>3.2302728666409579</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -890,19 +892,19 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>4.4309161963142317E-7</v>
+        <v>6.3182773550734456E-6</v>
       </c>
       <c r="C17">
-        <v>165.0377350307725</v>
+        <v>139.2830535976783</v>
       </c>
       <c r="D17">
-        <v>1.2475344590297321E-2</v>
+        <v>2.674425267122887E-3</v>
       </c>
       <c r="E17">
-        <v>31.529671756662609</v>
+        <v>34.214654392330573</v>
       </c>
       <c r="F17">
-        <v>1.9549642457811469</v>
+        <v>2.9965115571052929</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -910,19 +912,19 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1.025394529010235E-5</v>
+        <v>3.6367170315619919E-6</v>
       </c>
       <c r="C18">
-        <v>167.20368497671089</v>
+        <v>149.9845798584648</v>
       </c>
       <c r="D18">
-        <v>1.423767646326188E-2</v>
+        <v>1.078895105094064E-2</v>
       </c>
       <c r="E18">
-        <v>30.85070551739777</v>
+        <v>35.655973706760008</v>
       </c>
       <c r="F18">
-        <v>1.6152914308406461</v>
+        <v>3.040192447433673</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -930,19 +932,19 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1.8262751518998269E-5</v>
+        <v>2.0481779138746991E-6</v>
       </c>
       <c r="C19">
-        <v>127.2354925503455</v>
+        <v>153.74545446303071</v>
       </c>
       <c r="D19">
-        <v>1.5498830800024031E-3</v>
+        <v>3.0029250913657279E-2</v>
       </c>
       <c r="E19">
-        <v>28.11905580488072</v>
+        <v>34.439668835342538</v>
       </c>
       <c r="F19">
-        <v>2.1166115506170948</v>
+        <v>2.7738141867823898</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -950,19 +952,19 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>4.5165532128768529E-6</v>
+        <v>6.18122355567145E-6</v>
       </c>
       <c r="C20">
-        <v>130.30649476688839</v>
+        <v>133.52356967491099</v>
       </c>
       <c r="D20">
-        <v>2.2732491366466909E-2</v>
+        <v>5.7824679376864419E-2</v>
       </c>
       <c r="E20">
-        <v>29.59039835732008</v>
+        <v>33.51852135544631</v>
       </c>
       <c r="F20">
-        <v>1.900098552518374</v>
+        <v>2.6932598724822001</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -970,19 +972,19 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>3.30367551128405E-6</v>
+        <v>9.1273755570389307E-6</v>
       </c>
       <c r="C21">
-        <v>183.86457235459579</v>
+        <v>181.99072945151451</v>
       </c>
       <c r="D21">
-        <v>1.6790147558888691E-2</v>
+        <v>4.8057065883822317E-2</v>
       </c>
       <c r="E21">
-        <v>31.289913271043929</v>
+        <v>34.757527892938633</v>
       </c>
       <c r="F21">
-        <v>1.942537274422822</v>
+        <v>2.7492501923539008</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -990,19 +992,19 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>2.2631263779942649E-6</v>
+        <v>7.0091447711599573E-6</v>
       </c>
       <c r="C22">
-        <v>131.4950748461531</v>
+        <v>145.05574385464661</v>
       </c>
       <c r="D22">
-        <v>2.8963896272436161E-3</v>
+        <v>2.4737117684462118E-2</v>
       </c>
       <c r="E22">
-        <v>27.83607950979312</v>
+        <v>31.550911539770571</v>
       </c>
       <c r="F22">
-        <v>2.0726393384242261</v>
+        <v>3.0797811401857791</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1010,19 +1012,19 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>7.4872189842389746E-6</v>
+        <v>9.2141772166678274E-7</v>
       </c>
       <c r="C23">
-        <v>143.64192826109681</v>
+        <v>158.3636621658294</v>
       </c>
       <c r="D23">
-        <v>9.4034233952237176E-3</v>
+        <v>6.1616126406862447E-2</v>
       </c>
       <c r="E23">
-        <v>35.630065273139827</v>
+        <v>25.927463116942569</v>
       </c>
       <c r="F23">
-        <v>2.1214219972257129</v>
+        <v>2.9877341208689359</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1030,19 +1032,19 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1.8472920700264559E-5</v>
+        <v>2.714801223960699E-6</v>
       </c>
       <c r="C24">
-        <v>147.96007198441561</v>
+        <v>175.96320621139111</v>
       </c>
       <c r="D24">
-        <v>8.8353517245164988E-3</v>
+        <v>1.417175644206878E-2</v>
       </c>
       <c r="E24">
-        <v>38.396633694732508</v>
+        <v>26.836629400431509</v>
       </c>
       <c r="F24">
-        <v>2.1023420597573068</v>
+        <v>2.1600439760725552</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1050,19 +1052,19 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>7.4351304552756747E-6</v>
+        <v>1.815872933694473E-6</v>
       </c>
       <c r="C25">
-        <v>139.39686475544411</v>
+        <v>124.1205851176295</v>
       </c>
       <c r="D25">
-        <v>2.784680628459818E-2</v>
+        <v>3.2839924628743152E-3</v>
       </c>
       <c r="E25">
-        <v>34.956858272187972</v>
+        <v>31.316307272224989</v>
       </c>
       <c r="F25">
-        <v>1.858374709215858</v>
+        <v>2.61249962667948</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1070,19 +1072,19 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>8.9321760419044106E-7</v>
+        <v>4.2550853944866371E-7</v>
       </c>
       <c r="C26">
-        <v>164.2497608165483</v>
+        <v>128.2326967593996</v>
       </c>
       <c r="D26">
-        <v>6.9107926267712233E-3</v>
+        <v>1.9095888561738869E-2</v>
       </c>
       <c r="E26">
-        <v>18.185181615760062</v>
+        <v>33.656871167570223</v>
       </c>
       <c r="F26">
-        <v>1.305306881152877</v>
+        <v>2.9947188032350849</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1090,19 +1092,19 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>8.2343637848129452E-6</v>
+        <v>1.9621040049931732E-6</v>
       </c>
       <c r="C27">
-        <v>190.04346272133751</v>
+        <v>160.93760085309069</v>
       </c>
       <c r="D27">
-        <v>7.6368256229049386E-2</v>
+        <v>5.2612033683407132E-2</v>
       </c>
       <c r="E27">
-        <v>46.121108728362223</v>
+        <v>24.973640540551681</v>
       </c>
       <c r="F27">
-        <v>2.0837618316159632</v>
+        <v>3.255528598399454</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1110,19 +1112,19 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>2.9233976876915558E-6</v>
+        <v>3.621950197889279E-6</v>
       </c>
       <c r="C28">
-        <v>142.51834700148081</v>
+        <v>141.22242465448079</v>
       </c>
       <c r="D28">
-        <v>1.245413426948881E-2</v>
+        <v>1.305897516397745E-3</v>
       </c>
       <c r="E28">
-        <v>34.224944010675593</v>
+        <v>32.596263842869313</v>
       </c>
       <c r="F28">
-        <v>2.104603409682746</v>
+        <v>3.4616340710217131</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1130,19 +1132,19 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>7.6758540536223508E-7</v>
+        <v>3.2263966277529829E-6</v>
       </c>
       <c r="C29">
-        <v>160.83518047529731</v>
+        <v>158.32329433940771</v>
       </c>
       <c r="D29">
-        <v>3.6631732382533769E-2</v>
+        <v>6.3908058213675054E-2</v>
       </c>
       <c r="E29">
-        <v>22.579983975909709</v>
+        <v>32.333527490218898</v>
       </c>
       <c r="F29">
-        <v>1.8980235863309241</v>
+        <v>3.3586049686460191</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1150,19 +1152,19 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>3.6218225567931331E-6</v>
+        <v>2.45392957353874E-6</v>
       </c>
       <c r="C30">
-        <v>132.92671971198129</v>
+        <v>142.9734869284718</v>
       </c>
       <c r="D30">
-        <v>3.8266853241030838E-2</v>
+        <v>3.1345339432388548E-2</v>
       </c>
       <c r="E30">
-        <v>28.6457900772164</v>
+        <v>30.497830671835771</v>
       </c>
       <c r="F30">
-        <v>1.928014688885201</v>
+        <v>2.7902050710967581</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1170,19 +1172,19 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>5.1723726953101898E-6</v>
+        <v>3.5578253889114742E-6</v>
       </c>
       <c r="C31">
-        <v>167.7761702840487</v>
+        <v>146.58883037877649</v>
       </c>
       <c r="D31">
-        <v>3.9344073792887757E-3</v>
+        <v>2.3714475616704471E-2</v>
       </c>
       <c r="E31">
-        <v>20.866287841882141</v>
+        <v>27.208014144362458</v>
       </c>
       <c r="F31">
-        <v>2.1083797922818182</v>
+        <v>2.9001845900177128</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1214,9 +1216,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1249,19 +1249,19 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>5.6190823076609497E-3</v>
+        <v>2.749719731280909E-3</v>
       </c>
       <c r="C2">
-        <v>9.2141753536463202</v>
+        <v>9.2464201300761353</v>
       </c>
       <c r="D2">
-        <v>1.7873408836756051</v>
+        <v>1.9076963906009119</v>
       </c>
       <c r="E2">
-        <v>4.5665396361960831</v>
+        <v>5.4360556022495636</v>
       </c>
       <c r="F2">
-        <v>2.6065492799272509</v>
+        <v>3.069618796791922</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1269,19 +1269,19 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.89629328708607E-3</v>
+        <v>2.5846025794646899E-3</v>
       </c>
       <c r="C3">
-        <v>8.7824697762391573</v>
+        <v>9.3653348421130467</v>
       </c>
       <c r="D3">
-        <v>2.0643059182803118</v>
+        <v>1.665727842332452</v>
       </c>
       <c r="E3">
-        <v>5.0453469794546884</v>
+        <v>5.3205416041159417</v>
       </c>
       <c r="F3">
-        <v>2.2364702280332591</v>
+        <v>2.855005349921008</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1289,19 +1289,19 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2.7890862396025011E-3</v>
+        <v>1.189303688449161E-3</v>
       </c>
       <c r="C4">
-        <v>8.5888811176511588</v>
+        <v>8.8747400185664915</v>
       </c>
       <c r="D4">
-        <v>2.2333993217470232</v>
+        <v>2.221578789654501</v>
       </c>
       <c r="E4">
-        <v>5.0295656366473978</v>
+        <v>4.6505596289962838</v>
       </c>
       <c r="F4">
-        <v>2.305161519785639</v>
+        <v>3.075035447608514</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1309,19 +1309,19 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1.39224124481574E-3</v>
+        <v>1.409708835865775E-3</v>
       </c>
       <c r="C5">
-        <v>8.4319112277617947</v>
+        <v>8.6514927263285006</v>
       </c>
       <c r="D5">
-        <v>2.231251310464593</v>
+        <v>2.3301724383846651</v>
       </c>
       <c r="E5">
-        <v>5.6391137366386026</v>
+        <v>5.3554806494724438</v>
       </c>
       <c r="F5">
-        <v>2.429805296642467</v>
+        <v>2.7324089189201861</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1329,19 +1329,19 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>4.2233794583670381E-3</v>
+        <v>2.8228158180785279E-3</v>
       </c>
       <c r="C6">
-        <v>8.2990064871055598</v>
+        <v>8.4410062138994952</v>
       </c>
       <c r="D6">
-        <v>1.8119815766355141</v>
+        <v>1.7909966965390931</v>
       </c>
       <c r="E6">
-        <v>5.2715770584146036</v>
+        <v>5.0256223060299021</v>
       </c>
       <c r="F6">
-        <v>2.1531535013633669</v>
+        <v>2.7127971992531918</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1349,19 +1349,19 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2.0999247800621572E-3</v>
+        <v>1.461684778153671E-3</v>
       </c>
       <c r="C7">
-        <v>8.6690318563421567</v>
+        <v>9.3432399543324287</v>
       </c>
       <c r="D7">
-        <v>1.208835769688748</v>
+        <v>2.5926234020929551</v>
       </c>
       <c r="E7">
-        <v>5.2300076549749868</v>
+        <v>4.8093556337059802</v>
       </c>
       <c r="F7">
-        <v>2.2635437543458581</v>
+        <v>2.561911901553469</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1369,19 +1369,19 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1.121436375783436E-3</v>
+        <v>9.4637618952164715E-4</v>
       </c>
       <c r="C8">
-        <v>9.4678018446765186</v>
+        <v>8.3473924601191243</v>
       </c>
       <c r="D8">
-        <v>1.1710071830023421</v>
+        <v>2.9601241483951668</v>
       </c>
       <c r="E8">
-        <v>4.498740024706688</v>
+        <v>5.7398832816234986</v>
       </c>
       <c r="F8">
-        <v>2.3297844904759408</v>
+        <v>2.6125306227140399</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1389,19 +1389,19 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2.404382093026403E-3</v>
+        <v>1.3191710274331749E-3</v>
       </c>
       <c r="C9">
-        <v>8.6084327045309195</v>
+        <v>8.6220241746768149</v>
       </c>
       <c r="D9">
-        <v>2.224369049224642</v>
+        <v>2.0247055831861189</v>
       </c>
       <c r="E9">
-        <v>5.6108808907875343</v>
+        <v>5.5881299456281823</v>
       </c>
       <c r="F9">
-        <v>2.367518833077213</v>
+        <v>2.6696180874481752</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1409,19 +1409,19 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1.2781271480197811E-3</v>
+        <v>1.642104636456754E-3</v>
       </c>
       <c r="C10">
-        <v>8.5114284492213645</v>
+        <v>9.6373595658993363</v>
       </c>
       <c r="D10">
-        <v>2.3413178132288981</v>
+        <v>2.0270726549384261</v>
       </c>
       <c r="E10">
-        <v>5.6074602896127814</v>
+        <v>4.4788407985409862</v>
       </c>
       <c r="F10">
-        <v>2.4169594307959739</v>
+        <v>2.917327435492862</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1429,19 +1429,19 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>7.4922351857908964E-4</v>
+        <v>2.94640384417777E-3</v>
       </c>
       <c r="C11">
-        <v>8.8651054374386113</v>
+        <v>9.4627965585310161</v>
       </c>
       <c r="D11">
-        <v>1.7825277468672709</v>
+        <v>1.6892285264318301</v>
       </c>
       <c r="E11">
-        <v>5.4998390759704208</v>
+        <v>5.0365486158167521</v>
       </c>
       <c r="F11">
-        <v>2.3824873544383331</v>
+        <v>2.5711432539008361</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1449,19 +1449,19 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>3.5458163780650591E-3</v>
+        <v>2.031289845654261E-3</v>
       </c>
       <c r="C12">
-        <v>8.8737834300183369</v>
+        <v>9.0739616835973411</v>
       </c>
       <c r="D12">
-        <v>1.3718046013358181</v>
+        <v>1.35878366239561</v>
       </c>
       <c r="E12">
-        <v>5.5429700197982896</v>
+        <v>5.0703158411130929</v>
       </c>
       <c r="F12">
-        <v>2.0433203026800801</v>
+        <v>2.8536302002645368</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1469,19 +1469,19 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>3.367273364486056E-3</v>
+        <v>2.5625918573095601E-3</v>
       </c>
       <c r="C13">
-        <v>9.5342942314684063</v>
+        <v>9.3254651992522142</v>
       </c>
       <c r="D13">
-        <v>2.6738387084232511</v>
+        <v>2.2386323751171102</v>
       </c>
       <c r="E13">
-        <v>5.4115548567460188</v>
+        <v>5.5057207475359249</v>
       </c>
       <c r="F13">
-        <v>2.437079438180942</v>
+        <v>2.6077899720316511</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1489,19 +1489,19 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1.093901607618353E-3</v>
+        <v>6.7258231310463046E-4</v>
       </c>
       <c r="C14">
-        <v>8.9046728427184885</v>
+        <v>9.2275475927977784</v>
       </c>
       <c r="D14">
-        <v>2.932806980791522</v>
+        <v>2.740032728501824</v>
       </c>
       <c r="E14">
-        <v>4.7352166866138674</v>
+        <v>4.3375840499477896</v>
       </c>
       <c r="F14">
-        <v>2.1521268255933501</v>
+        <v>2.6502930501563249</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1509,19 +1509,19 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1.131316658199655E-3</v>
+        <v>1.301275842820804E-3</v>
       </c>
       <c r="C15">
-        <v>8.3175499260720684</v>
+        <v>8.8021381822666847</v>
       </c>
       <c r="D15">
-        <v>1.3444505641597471</v>
+        <v>1.9020257666607141</v>
       </c>
       <c r="E15">
-        <v>5.1496301426519864</v>
+        <v>4.7441026829422412</v>
       </c>
       <c r="F15">
-        <v>2.472789360561674</v>
+        <v>2.8162299219740281</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1529,19 +1529,19 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1.3476320698981861E-3</v>
+        <v>1.664957492281349E-3</v>
       </c>
       <c r="C16">
-        <v>8.5927582028967961</v>
+        <v>8.6912199932079925</v>
       </c>
       <c r="D16">
-        <v>1.5475508439653509</v>
+        <v>3.2247275244010578</v>
       </c>
       <c r="E16">
-        <v>5.5774690290281583</v>
+        <v>6.2226439693704911</v>
       </c>
       <c r="F16">
-        <v>2.499422157500796</v>
+        <v>2.686356637069395</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1549,19 +1549,19 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1.1701141432500779E-3</v>
+        <v>2.391737496065804E-3</v>
       </c>
       <c r="C17">
-        <v>9.0814535041885485</v>
+        <v>8.8190530674264327</v>
       </c>
       <c r="D17">
-        <v>2.5808099134361422</v>
+        <v>1.7919054299200039</v>
       </c>
       <c r="E17">
-        <v>5.6686297801257908</v>
+        <v>5.4447738388837763</v>
       </c>
       <c r="F17">
-        <v>2.2293049979761941</v>
+        <v>2.890497964265073</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1569,19 +1569,19 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1.3765693705356521E-3</v>
+        <v>1.5185174194418669E-3</v>
       </c>
       <c r="C18">
-        <v>9.3206985126671764</v>
+        <v>9.2981721104490713</v>
       </c>
       <c r="D18">
-        <v>2.668908807184871</v>
+        <v>2.7509756609386469</v>
       </c>
       <c r="E18">
-        <v>5.5875280372003786</v>
+        <v>5.7990343551072696</v>
       </c>
       <c r="F18">
-        <v>2.384947499379976</v>
+        <v>2.6929247866220551</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1589,19 +1589,19 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1.332170885099959E-3</v>
+        <v>3.762789479669681E-3</v>
       </c>
       <c r="C19">
-        <v>9.2890464185036148</v>
+        <v>9.2578167909639575</v>
       </c>
       <c r="D19">
-        <v>2.2365927150520091</v>
+        <v>2.2324976536060999</v>
       </c>
       <c r="E19">
-        <v>5.4961621109960674</v>
+        <v>5.5190299216562124</v>
       </c>
       <c r="F19">
-        <v>2.2632173860751061</v>
+        <v>2.6881225492226939</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1609,19 +1609,19 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>2.865874168023641E-3</v>
+        <v>2.46518692055675E-3</v>
       </c>
       <c r="C20">
-        <v>8.7799694638608905</v>
+        <v>8.9932517064396134</v>
       </c>
       <c r="D20">
-        <v>2.5125458743566789</v>
+        <v>1.801997828303098</v>
       </c>
       <c r="E20">
-        <v>4.9474358556840237</v>
+        <v>5.4093750567635261</v>
       </c>
       <c r="F20">
-        <v>2.147032381567183</v>
+        <v>2.89305690616363</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1629,19 +1629,19 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>1.5091473179613679E-3</v>
+        <v>1.8195605502033809E-3</v>
       </c>
       <c r="C21">
-        <v>9.2895834821422199</v>
+        <v>9.1972351077347234</v>
       </c>
       <c r="D21">
-        <v>2.027234766053692</v>
+        <v>2.049296431357039</v>
       </c>
       <c r="E21">
-        <v>5.6295532701237514</v>
+        <v>5.4490766074993822</v>
       </c>
       <c r="F21">
-        <v>2.3544678047021219</v>
+        <v>2.7516662892418968</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1649,19 +1649,19 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>7.2592831021056625E-4</v>
+        <v>1.938654386119953E-3</v>
       </c>
       <c r="C22">
-        <v>8.9863222824629787</v>
+        <v>8.8041643271909589</v>
       </c>
       <c r="D22">
-        <v>2.5324098089123241</v>
+        <v>2.1286542081507278</v>
       </c>
       <c r="E22">
-        <v>4.8430188723203109</v>
+        <v>5.5954077611430684</v>
       </c>
       <c r="F22">
-        <v>2.4260351554684911</v>
+        <v>2.5967329463740718</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1669,19 +1669,19 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>3.1965286109252311E-3</v>
+        <v>1.5347744012008671E-3</v>
       </c>
       <c r="C23">
-        <v>8.9541504932965577</v>
+        <v>9.5356117713146915</v>
       </c>
       <c r="D23">
-        <v>2.23435469202962</v>
+        <v>1.6637967129624229</v>
       </c>
       <c r="E23">
-        <v>4.8106500053638293</v>
+        <v>5.3119166530610826</v>
       </c>
       <c r="F23">
-        <v>2.172144705111489</v>
+        <v>2.6450276694491959</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1689,19 +1689,19 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>2.9583359161944318E-3</v>
+        <v>2.0539442185705252E-3</v>
       </c>
       <c r="C24">
-        <v>9.1809304507967102</v>
+        <v>9.4977315743731641</v>
       </c>
       <c r="D24">
-        <v>1.517992625524635</v>
+        <v>2.417493514997695</v>
       </c>
       <c r="E24">
-        <v>4.4073023923063843</v>
+        <v>5.4090523026914754</v>
       </c>
       <c r="F24">
-        <v>2.309101298013982</v>
+        <v>2.7302792243107601</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1709,19 +1709,19 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1.6646752791804611E-3</v>
+        <v>3.4432118804272882E-3</v>
       </c>
       <c r="C25">
-        <v>9.4712815743674348</v>
+        <v>8.8522912517928454</v>
       </c>
       <c r="D25">
-        <v>2.1368360520131948</v>
+        <v>2.4989664958390598</v>
       </c>
       <c r="E25">
-        <v>5.6997712890039844</v>
+        <v>5.0352080830020176</v>
       </c>
       <c r="F25">
-        <v>2.1718921275260219</v>
+        <v>2.6843203450422348</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1729,19 +1729,19 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1.3691237199080499E-3</v>
+        <v>1.666312686286364E-3</v>
       </c>
       <c r="C26">
-        <v>9.0523753738849457</v>
+        <v>8.5987775361221264</v>
       </c>
       <c r="D26">
-        <v>1.7637368671951279</v>
+        <v>1.5059539512712099</v>
       </c>
       <c r="E26">
-        <v>4.5692167442434553</v>
+        <v>5.053370114424439</v>
       </c>
       <c r="F26">
-        <v>2.4343523704196919</v>
+        <v>2.823399208456657</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1749,19 +1749,19 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>1.2309332128919159E-3</v>
+        <v>8.7831582602904135E-4</v>
       </c>
       <c r="C27">
-        <v>8.9363217435505966</v>
+        <v>8.1445301760100932</v>
       </c>
       <c r="D27">
-        <v>0.12315872829746551</v>
+        <v>1.6549923790739249</v>
       </c>
       <c r="E27">
-        <v>5.5015442292626773</v>
+        <v>4.8534276875796998</v>
       </c>
       <c r="F27">
-        <v>2.318390980961667</v>
+        <v>2.76890423636786</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1769,19 +1769,19 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>2.613259986088412E-3</v>
+        <v>1.4394599920319879E-3</v>
       </c>
       <c r="C28">
-        <v>8.8407815354276895</v>
+        <v>9.0578644327373574</v>
       </c>
       <c r="D28">
-        <v>2.139874409030007</v>
+        <v>1.5196675807111371</v>
       </c>
       <c r="E28">
-        <v>5.6601694556235316</v>
+        <v>5.8267004280909518</v>
       </c>
       <c r="F28">
-        <v>2.372639684699319</v>
+        <v>2.6727383593640899</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1789,19 +1789,19 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>3.1618169797345001E-3</v>
+        <v>4.4145564566950854E-3</v>
       </c>
       <c r="C29">
-        <v>8.884746038411901</v>
+        <v>8.6352290598395829</v>
       </c>
       <c r="D29">
-        <v>1.910810157841059</v>
+        <v>1.650625414911904</v>
       </c>
       <c r="E29">
-        <v>5.3747296403851594</v>
+        <v>5.0409044570050767</v>
       </c>
       <c r="F29">
-        <v>2.508289286207849</v>
+        <v>2.599706412762619</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1809,19 +1809,19 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>2.9110060418351398E-3</v>
+        <v>1.1346744159301809E-3</v>
       </c>
       <c r="C30">
-        <v>8.8560725370486946</v>
+        <v>8.4407566502308971</v>
       </c>
       <c r="D30">
-        <v>1.799319408436248</v>
+        <v>2.1266792783642749</v>
       </c>
       <c r="E30">
-        <v>5.7119452784005702</v>
+        <v>5.1043314832089379</v>
       </c>
       <c r="F30">
-        <v>2.3412915418282201</v>
+        <v>2.7485735687506438</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1829,19 +1829,19 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>2.3149736458063508E-3</v>
+        <v>2.1863379968007908E-3</v>
       </c>
       <c r="C31">
-        <v>8.6842574727898576</v>
+        <v>9.0570496283462063</v>
       </c>
       <c r="D31">
-        <v>2.3261345921256522</v>
+        <v>9.1529235204110382E-2</v>
       </c>
       <c r="E31">
-        <v>5.2165934409868768</v>
+        <v>5.5630845767013426</v>
       </c>
       <c r="F31">
-        <v>2.415611274448207</v>
+        <v>2.687461533171529</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1908,19 +1908,19 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>171.75797022099351</v>
+        <v>155.71958749437081</v>
       </c>
       <c r="C2">
-        <v>398.26281957439897</v>
+        <v>379.72884338202857</v>
       </c>
       <c r="D2">
-        <v>102.09898241201221</v>
+        <v>71.446797355512956</v>
       </c>
       <c r="E2">
-        <v>201.89554851333341</v>
+        <v>227.6000318817344</v>
       </c>
       <c r="F2">
-        <v>166.4937971000283</v>
+        <v>187.63781404371889</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1928,19 +1928,19 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>153.32322998486961</v>
+        <v>130.00891139528011</v>
       </c>
       <c r="C3">
-        <v>406.21718237693489</v>
+        <v>409.87829016844989</v>
       </c>
       <c r="D3">
-        <v>65.336954945212483</v>
+        <v>74.518291228171194</v>
       </c>
       <c r="E3">
-        <v>214.90160634197761</v>
+        <v>237.7026149998687</v>
       </c>
       <c r="F3">
-        <v>173.0529218601032</v>
+        <v>199.20796254090649</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1948,19 +1948,19 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>172.06202506724861</v>
+        <v>175.1464648393777</v>
       </c>
       <c r="C4">
-        <v>387.83368551096248</v>
+        <v>418.98799384724072</v>
       </c>
       <c r="D4">
-        <v>81.552319300087845</v>
+        <v>53.07485314214955</v>
       </c>
       <c r="E4">
-        <v>239.40287377600831</v>
+        <v>249.4343044199675</v>
       </c>
       <c r="F4">
-        <v>174.3034878936684</v>
+        <v>205.10112347952241</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1968,19 +1968,19 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>174.2358151324606</v>
+        <v>129.4809123170009</v>
       </c>
       <c r="C5">
-        <v>364.45082463513961</v>
+        <v>439.37125656052069</v>
       </c>
       <c r="D5">
-        <v>97.155657149540048</v>
+        <v>84.061862660560962</v>
       </c>
       <c r="E5">
-        <v>225.834279748147</v>
+        <v>228.46419357999841</v>
       </c>
       <c r="F5">
-        <v>171.28846055045091</v>
+        <v>190.53418646999981</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1988,19 +1988,19 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>147.6113737463242</v>
+        <v>160.90146638606649</v>
       </c>
       <c r="C6">
-        <v>388.23314115012153</v>
+        <v>388.04315971262059</v>
       </c>
       <c r="D6">
-        <v>86.270980700767097</v>
+        <v>66.887266847378527</v>
       </c>
       <c r="E6">
-        <v>233.12748204928539</v>
+        <v>241.70210679406591</v>
       </c>
       <c r="F6">
-        <v>165.25979455790949</v>
+        <v>207.44193941747801</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2008,19 +2008,19 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>190.5234350260574</v>
+        <v>154.48792049965459</v>
       </c>
       <c r="C7">
-        <v>371.70025599862021</v>
+        <v>425.13012618208472</v>
       </c>
       <c r="D7">
-        <v>88.354425721818956</v>
+        <v>99.064775185455915</v>
       </c>
       <c r="E7">
-        <v>274.7273933354133</v>
+        <v>249.28291951829991</v>
       </c>
       <c r="F7">
-        <v>179.2188594991899</v>
+        <v>203.41192691471909</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -2028,19 +2028,19 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>170.91241420119371</v>
+        <v>163.3872792129774</v>
       </c>
       <c r="C8">
-        <v>425.50673159707839</v>
+        <v>416.60630842568719</v>
       </c>
       <c r="D8">
-        <v>63.92569544226069</v>
+        <v>56.469588924135373</v>
       </c>
       <c r="E8">
-        <v>208.52016508942179</v>
+        <v>230.82385060142869</v>
       </c>
       <c r="F8">
-        <v>173.91426980348399</v>
+        <v>214.41981583913031</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -2048,19 +2048,19 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>180.15428371466081</v>
+        <v>172.38030333343039</v>
       </c>
       <c r="C9">
-        <v>402.34156697556762</v>
+        <v>410.89053342444299</v>
       </c>
       <c r="D9">
-        <v>63.803520338618647</v>
+        <v>76.158036154904067</v>
       </c>
       <c r="E9">
-        <v>262.12336452377889</v>
+        <v>233.7853979265968</v>
       </c>
       <c r="F9">
-        <v>181.32711157064679</v>
+        <v>179.10963005059421</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -2068,19 +2068,19 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>152.0556696796921</v>
+        <v>142.69975409028959</v>
       </c>
       <c r="C10">
-        <v>393.63831213581949</v>
+        <v>419.85748108478441</v>
       </c>
       <c r="D10">
-        <v>76.996013935909929</v>
+        <v>98.492197133860543</v>
       </c>
       <c r="E10">
-        <v>262.04274851142662</v>
+        <v>214.93108959209599</v>
       </c>
       <c r="F10">
-        <v>168.428496524216</v>
+        <v>178.50825093886641</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2088,19 +2088,19 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>163.66921858605389</v>
+        <v>176.23385123845651</v>
       </c>
       <c r="C11">
-        <v>415.50330270911581</v>
+        <v>427.88589359457069</v>
       </c>
       <c r="D11">
-        <v>107.57973168409229</v>
+        <v>61.54760880873215</v>
       </c>
       <c r="E11">
-        <v>253.3345936878068</v>
+        <v>240.46496518876759</v>
       </c>
       <c r="F11">
-        <v>145.85161844673769</v>
+        <v>201.88189056452109</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -2108,19 +2108,19 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>184.0835886976472</v>
+        <v>102.5928686013367</v>
       </c>
       <c r="C12">
-        <v>430.93277380585852</v>
+        <v>391.98635247912699</v>
       </c>
       <c r="D12">
-        <v>70.738271622278262</v>
+        <v>76.131363468197179</v>
       </c>
       <c r="E12">
-        <v>233.86633317063021</v>
+        <v>247.30524321985041</v>
       </c>
       <c r="F12">
-        <v>159.82177155795739</v>
+        <v>193.99172323173201</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2128,19 +2128,19 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>127.8104998496019</v>
+        <v>130.44394084216421</v>
       </c>
       <c r="C13">
-        <v>405.95360965513851</v>
+        <v>419.72244290876858</v>
       </c>
       <c r="D13">
-        <v>114.3685370841701</v>
+        <v>108.4151283335446</v>
       </c>
       <c r="E13">
-        <v>236.4472144589995</v>
+        <v>219.69821053923511</v>
       </c>
       <c r="F13">
-        <v>182.71797605363821</v>
+        <v>177.30358745690009</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -2148,19 +2148,19 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>176.10017631930421</v>
+        <v>141.78626701363291</v>
       </c>
       <c r="C14">
-        <v>422.14264728074818</v>
+        <v>394.63369278785859</v>
       </c>
       <c r="D14">
-        <v>83.492741484254083</v>
+        <v>107.4833386454017</v>
       </c>
       <c r="E14">
-        <v>249.50955252363269</v>
+        <v>252.74170806473359</v>
       </c>
       <c r="F14">
-        <v>167.3284074356045</v>
+        <v>200.8444761742939</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -2168,19 +2168,19 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>164.96590090978279</v>
+        <v>171.263951073344</v>
       </c>
       <c r="C15">
-        <v>355.15894497436318</v>
+        <v>416.56000313429712</v>
       </c>
       <c r="D15">
-        <v>68.729372912765058</v>
+        <v>68.708864623987409</v>
       </c>
       <c r="E15">
-        <v>219.6706054993231</v>
+        <v>263.86119837714062</v>
       </c>
       <c r="F15">
-        <v>173.51778629068659</v>
+        <v>185.70493274244981</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -2188,19 +2188,19 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>164.62511817509679</v>
+        <v>155.2171588882124</v>
       </c>
       <c r="C16">
-        <v>377.9383217076533</v>
+        <v>396.88934942530119</v>
       </c>
       <c r="D16">
-        <v>81.170560798813938</v>
+        <v>61.635549781185233</v>
       </c>
       <c r="E16">
-        <v>243.5538605359495</v>
+        <v>216.76983475400101</v>
       </c>
       <c r="F16">
-        <v>159.32527579506851</v>
+        <v>195.4594460409721</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -2208,19 +2208,19 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>147.69149566043231</v>
+        <v>146.14835569208009</v>
       </c>
       <c r="C17">
-        <v>414.07761889517269</v>
+        <v>413.93609995825148</v>
       </c>
       <c r="D17">
-        <v>71.154828774577624</v>
+        <v>68.502492703194122</v>
       </c>
       <c r="E17">
-        <v>253.77247635399141</v>
+        <v>264.69697443124107</v>
       </c>
       <c r="F17">
-        <v>174.9866681146037</v>
+        <v>199.15486762858461</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -2228,19 +2228,19 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>185.03393875931209</v>
+        <v>155.35407219280091</v>
       </c>
       <c r="C18">
-        <v>431.83066364060062</v>
+        <v>435.42250527259591</v>
       </c>
       <c r="D18">
-        <v>105.5952393356043</v>
+        <v>75.772929203146816</v>
       </c>
       <c r="E18">
-        <v>252.2931089391324</v>
+        <v>267.65562159023648</v>
       </c>
       <c r="F18">
-        <v>175.5600624885455</v>
+        <v>188.72488925717579</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -2248,19 +2248,19 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>175.70877125961351</v>
+        <v>182.35158546893851</v>
       </c>
       <c r="C19">
-        <v>394.39843434573987</v>
+        <v>413.0069237171133</v>
       </c>
       <c r="D19">
-        <v>110.75923576090651</v>
+        <v>74.925095042322511</v>
       </c>
       <c r="E19">
-        <v>218.10280551198841</v>
+        <v>222.7669757887725</v>
       </c>
       <c r="F19">
-        <v>171.16226385824669</v>
+        <v>178.68330850072999</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -2268,19 +2268,19 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>154.76893916172961</v>
+        <v>205.00940297167449</v>
       </c>
       <c r="C20">
-        <v>423.74086422856323</v>
+        <v>402.28676972309972</v>
       </c>
       <c r="D20">
-        <v>90.571073450793136</v>
+        <v>57.31746548057717</v>
       </c>
       <c r="E20">
-        <v>254.93389659285901</v>
+        <v>264.6131675498662</v>
       </c>
       <c r="F20">
-        <v>162.26206184367649</v>
+        <v>181.28479587997211</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -2288,19 +2288,19 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>156.64145839531571</v>
+        <v>105.65534126211421</v>
       </c>
       <c r="C21">
-        <v>427.20943058656809</v>
+        <v>407.98386184594409</v>
       </c>
       <c r="D21">
-        <v>60.434712083869869</v>
+        <v>126.29767052343109</v>
       </c>
       <c r="E21">
-        <v>230.76666332800431</v>
+        <v>230.44723981312279</v>
       </c>
       <c r="F21">
-        <v>162.13163283929569</v>
+        <v>203.92810407683851</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2308,19 +2308,19 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>156.71669726118651</v>
+        <v>144.5140510999544</v>
       </c>
       <c r="C22">
-        <v>406.62674324327543</v>
+        <v>384.72059678511312</v>
       </c>
       <c r="D22">
-        <v>66.096935886565433</v>
+        <v>96.000785207246537</v>
       </c>
       <c r="E22">
-        <v>270.68502855096671</v>
+        <v>240.2710074325191</v>
       </c>
       <c r="F22">
-        <v>168.24872208293729</v>
+        <v>177.00226965417329</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -2328,19 +2328,19 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>170.6323267392653</v>
+        <v>175.57498538686039</v>
       </c>
       <c r="C23">
-        <v>436.80364606585601</v>
+        <v>411.41205252250637</v>
       </c>
       <c r="D23">
-        <v>115.8382027624406</v>
+        <v>83.502660121870633</v>
       </c>
       <c r="E23">
-        <v>257.66728401861968</v>
+        <v>253.47734559389369</v>
       </c>
       <c r="F23">
-        <v>172.85315582066511</v>
+        <v>194.1131412726383</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -2348,19 +2348,19 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>153.62776875997989</v>
+        <v>158.49001490973859</v>
       </c>
       <c r="C24">
-        <v>404.60686599640297</v>
+        <v>362.69230005168311</v>
       </c>
       <c r="D24">
-        <v>77.443771187821881</v>
+        <v>46.873367261580768</v>
       </c>
       <c r="E24">
-        <v>263.57086674210518</v>
+        <v>250.2760622374644</v>
       </c>
       <c r="F24">
-        <v>177.3658311541416</v>
+        <v>206.81526776696009</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -2368,19 +2368,19 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>156.36169186702929</v>
+        <v>203.22353017140281</v>
       </c>
       <c r="C25">
-        <v>417.91839466829123</v>
+        <v>422.53575752830812</v>
       </c>
       <c r="D25">
-        <v>49.382224069884273</v>
+        <v>59.28352206219779</v>
       </c>
       <c r="E25">
-        <v>276.72205055402458</v>
+        <v>240.83613218222209</v>
       </c>
       <c r="F25">
-        <v>167.90533623846801</v>
+        <v>187.43733657306851</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -2388,19 +2388,19 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>184.36044729165519</v>
+        <v>166.7408141128594</v>
       </c>
       <c r="C26">
-        <v>425.1736453346756</v>
+        <v>374.68278654485232</v>
       </c>
       <c r="D26">
-        <v>71.286300563674445</v>
+        <v>103.076894522562</v>
       </c>
       <c r="E26">
-        <v>230.98660259186849</v>
+        <v>232.5065269584496</v>
       </c>
       <c r="F26">
-        <v>145.70874768477009</v>
+        <v>188.20344151814919</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -2408,19 +2408,19 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>146.15930624125761</v>
+        <v>189.9741953270364</v>
       </c>
       <c r="C27">
-        <v>419.62090348696552</v>
+        <v>345.50629898256341</v>
       </c>
       <c r="D27">
-        <v>93.490565922867091</v>
+        <v>103.3275051010814</v>
       </c>
       <c r="E27">
-        <v>197.91060651382199</v>
+        <v>230.82426218210591</v>
       </c>
       <c r="F27">
-        <v>152.36004336197601</v>
+        <v>208.50802320081601</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -2428,19 +2428,19 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>164.16371416839979</v>
+        <v>181.46261755313921</v>
       </c>
       <c r="C28">
-        <v>443.89725711870562</v>
+        <v>425.69611883619291</v>
       </c>
       <c r="D28">
-        <v>55.213009637290781</v>
+        <v>62.684342052755817</v>
       </c>
       <c r="E28">
-        <v>254.99825938890771</v>
+        <v>257.40975175748719</v>
       </c>
       <c r="F28">
-        <v>185.24347437547121</v>
+        <v>210.8360524892052</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -2448,19 +2448,19 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>166.5515147872517</v>
+        <v>121.7002053411323</v>
       </c>
       <c r="C29">
-        <v>400.0599631004992</v>
+        <v>387.91915397280172</v>
       </c>
       <c r="D29">
-        <v>101.6588822353562</v>
+        <v>94.153046265267051</v>
       </c>
       <c r="E29">
-        <v>224.6555336310411</v>
+        <v>249.90972823845681</v>
       </c>
       <c r="F29">
-        <v>152.593547006232</v>
+        <v>193.52618332144721</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2468,19 +2468,19 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>144.18702567182899</v>
+        <v>195.87016442702119</v>
       </c>
       <c r="C30">
-        <v>384.19132615274998</v>
+        <v>434.79799251821481</v>
       </c>
       <c r="D30">
-        <v>79.144711503272021</v>
+        <v>88.874837133592081</v>
       </c>
       <c r="E30">
-        <v>220.63301141785121</v>
+        <v>234.98843935592421</v>
       </c>
       <c r="F30">
-        <v>141.93372299043591</v>
+        <v>195.72244380373229</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -2488,19 +2488,19 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>170.85561635670601</v>
+        <v>161.32143744231689</v>
       </c>
       <c r="C31">
-        <v>415.93519531446441</v>
+        <v>422.64398883068861</v>
       </c>
       <c r="D31">
-        <v>113.152809915844</v>
+        <v>63.898342143327682</v>
       </c>
       <c r="E31">
-        <v>247.3760890019297</v>
+        <v>251.04624153328049</v>
       </c>
       <c r="F31">
-        <v>174.90359965552949</v>
+        <v>199.90239245598241</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -2539,7 +2539,7 @@
     <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
@@ -2569,19 +2569,19 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>28.766850303176991</v>
+        <v>28.855370676984201</v>
       </c>
       <c r="C2">
-        <v>195661.99851611021</v>
+        <v>116527.60523108429</v>
       </c>
       <c r="D2">
-        <v>91.181257048233263</v>
+        <v>31.723784831515811</v>
       </c>
       <c r="E2">
-        <v>9664.7140212370905</v>
+        <v>7750.8187852091778</v>
       </c>
       <c r="F2">
-        <v>164.28000183095401</v>
+        <v>452.21866870185818</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2589,19 +2589,19 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>28.629349089935999</v>
+        <v>28.845118611022212</v>
       </c>
       <c r="C3">
-        <v>122167.43683463091</v>
+        <v>139282.89695890929</v>
       </c>
       <c r="D3">
-        <v>25.874889427762469</v>
+        <v>73.563518618275225</v>
       </c>
       <c r="E3">
-        <v>5588.3278218325549</v>
+        <v>5883.9001566352581</v>
       </c>
       <c r="F3">
-        <v>171.9069444098576</v>
+        <v>513.06387641300898</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2609,19 +2609,19 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>28.851371775273272</v>
+        <v>28.82899980029946</v>
       </c>
       <c r="C4">
-        <v>221834.45429073111</v>
+        <v>173818.1453631141</v>
       </c>
       <c r="D4">
-        <v>81.49468521686461</v>
+        <v>103.70380527454191</v>
       </c>
       <c r="E4">
-        <v>9605.191860055651</v>
+        <v>4880.0634162227034</v>
       </c>
       <c r="F4">
-        <v>265.78890416414077</v>
+        <v>329.9582159477564</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2629,19 +2629,19 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>28.864709685630629</v>
+        <v>28.646013491644219</v>
       </c>
       <c r="C5">
-        <v>223795.21635749369</v>
+        <v>167486.87293036291</v>
       </c>
       <c r="D5">
-        <v>113.88346649200091</v>
+        <v>81.502469181734824</v>
       </c>
       <c r="E5">
-        <v>6319.1613947822043</v>
+        <v>11147.51801681257</v>
       </c>
       <c r="F5">
-        <v>211.065404071275</v>
+        <v>284.14926007485332</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2649,19 +2649,19 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>28.891574126874051</v>
+        <v>28.832679922914402</v>
       </c>
       <c r="C6">
-        <v>209916.463263991</v>
+        <v>212100.41903368439</v>
       </c>
       <c r="D6">
-        <v>131.5866337364491</v>
+        <v>91.432290273689176</v>
       </c>
       <c r="E6">
-        <v>2663.4848118167979</v>
+        <v>6606.90941542155</v>
       </c>
       <c r="F6">
-        <v>235.6727966247804</v>
+        <v>261.00931976200468</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2669,19 +2669,19 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>28.6715749887329</v>
+        <v>28.793286549824352</v>
       </c>
       <c r="C7">
-        <v>210425.13225759461</v>
+        <v>276959.04374247708</v>
       </c>
       <c r="D7">
-        <v>35.218467457706787</v>
+        <v>33.220498909337287</v>
       </c>
       <c r="E7">
-        <v>11837.44640479529</v>
+        <v>6208.7709785296693</v>
       </c>
       <c r="F7">
-        <v>246.28118804268939</v>
+        <v>268.90976240125661</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -2689,19 +2689,19 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>28.84096015482254</v>
+        <v>28.718549045183121</v>
       </c>
       <c r="C8">
-        <v>208725.81735284871</v>
+        <v>175761.80368612861</v>
       </c>
       <c r="D8">
-        <v>56.189679082148928</v>
+        <v>61.789161309797407</v>
       </c>
       <c r="E8">
-        <v>6399.0804597379538</v>
+        <v>10116.137928430549</v>
       </c>
       <c r="F8">
-        <v>202.44612323134069</v>
+        <v>382.83722512579402</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -2709,19 +2709,19 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>28.782953197451821</v>
+        <v>28.84349040879269</v>
       </c>
       <c r="C9">
-        <v>148222.97389257711</v>
+        <v>168629.92214976621</v>
       </c>
       <c r="D9">
-        <v>28.934066973796781</v>
+        <v>91.198618763296381</v>
       </c>
       <c r="E9">
-        <v>6040.4319617021492</v>
+        <v>5333.9655186228329</v>
       </c>
       <c r="F9">
-        <v>243.98854686982449</v>
+        <v>287.02624783980241</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -2729,19 +2729,19 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>28.762486886659879</v>
+        <v>28.852665071623239</v>
       </c>
       <c r="C10">
-        <v>199995.38125746121</v>
+        <v>153533.78702849109</v>
       </c>
       <c r="D10">
-        <v>117.73970468044121</v>
+        <v>117.3891567877007</v>
       </c>
       <c r="E10">
-        <v>9108.3520462378383</v>
+        <v>9449.2605234108905</v>
       </c>
       <c r="F10">
-        <v>200.12162427510901</v>
+        <v>385.17194993930582</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2749,19 +2749,19 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>28.87003879907564</v>
+        <v>28.744446001688729</v>
       </c>
       <c r="C11">
-        <v>215245.0299718254</v>
+        <v>192813.2161045963</v>
       </c>
       <c r="D11">
-        <v>83.891623592962816</v>
+        <v>83.949558613460283</v>
       </c>
       <c r="E11">
-        <v>5569.9728458103627</v>
+        <v>15856.839659263709</v>
       </c>
       <c r="F11">
-        <v>249.18960026839389</v>
+        <v>341.85986361446169</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -2769,19 +2769,19 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>28.585104092573228</v>
+        <v>28.86390939034785</v>
       </c>
       <c r="C12">
-        <v>243205.10393292201</v>
+        <v>172938.1839904665</v>
       </c>
       <c r="D12">
-        <v>136.82149206632491</v>
+        <v>38.731510004410538</v>
       </c>
       <c r="E12">
-        <v>16326.67772085935</v>
+        <v>3009.64886923002</v>
       </c>
       <c r="F12">
-        <v>239.8688896407231</v>
+        <v>351.62161232654609</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2789,19 +2789,19 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>28.875051021874931</v>
+        <v>28.72419873272343</v>
       </c>
       <c r="C13">
-        <v>193792.5304089658</v>
+        <v>202433.8540639221</v>
       </c>
       <c r="D13">
-        <v>134.8206863374073</v>
+        <v>97.305188523759853</v>
       </c>
       <c r="E13">
-        <v>6009.4447053096701</v>
+        <v>9005.5929641158709</v>
       </c>
       <c r="F13">
-        <v>204.2691079683855</v>
+        <v>484.8116704398642</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -2809,19 +2809,19 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>28.81229416516738</v>
+        <v>28.8003086583197</v>
       </c>
       <c r="C14">
-        <v>183891.8267280501</v>
+        <v>128620.6392580356</v>
       </c>
       <c r="D14">
-        <v>139.9049424400545</v>
+        <v>26.125465350370419</v>
       </c>
       <c r="E14">
-        <v>5770.9938299068053</v>
+        <v>9323.5511154768465</v>
       </c>
       <c r="F14">
-        <v>254.0365975972577</v>
+        <v>321.41214226872961</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -2829,19 +2829,19 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>28.89956913495903</v>
+        <v>28.72309784300657</v>
       </c>
       <c r="C15">
-        <v>236325.01302743951</v>
+        <v>224003.62814717329</v>
       </c>
       <c r="D15">
-        <v>83.837109044874779</v>
+        <v>117.6245309323388</v>
       </c>
       <c r="E15">
-        <v>6416.3153767139811</v>
+        <v>9059.2934544278214</v>
       </c>
       <c r="F15">
-        <v>212.94379176395009</v>
+        <v>346.14382360794139</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -2849,19 +2849,19 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>28.867549396085671</v>
+        <v>28.58200618904316</v>
       </c>
       <c r="C16">
-        <v>216258.3805736042</v>
+        <v>252195.58918700769</v>
       </c>
       <c r="D16">
-        <v>574.39426152269152</v>
+        <v>40.275101013764328</v>
       </c>
       <c r="E16">
-        <v>5518.5463483537787</v>
+        <v>12033.04741279669</v>
       </c>
       <c r="F16">
-        <v>229.3745880941643</v>
+        <v>436.33499258015217</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -2869,19 +2869,19 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>28.890210022327519</v>
+        <v>28.737666426395482</v>
       </c>
       <c r="C17">
-        <v>135703.23700015439</v>
+        <v>199840.57301449709</v>
       </c>
       <c r="D17">
-        <v>47.608674993094333</v>
+        <v>161.65584168717359</v>
       </c>
       <c r="E17">
-        <v>13300.660502402399</v>
+        <v>12209.906887534769</v>
       </c>
       <c r="F17">
-        <v>218.5112159543464</v>
+        <v>581.40216942280733</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -2889,19 +2889,19 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>28.872645808237049</v>
+        <v>28.6520389013033</v>
       </c>
       <c r="C18">
-        <v>147409.51428779351</v>
+        <v>158065.91774990759</v>
       </c>
       <c r="D18">
-        <v>99.821030136692912</v>
+        <v>144.64298473123361</v>
       </c>
       <c r="E18">
-        <v>6836.1697265725052</v>
+        <v>7224.4756556091243</v>
       </c>
       <c r="F18">
-        <v>239.8037478655597</v>
+        <v>302.07697578291823</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -2909,19 +2909,19 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>28.680422177441251</v>
+        <v>28.80097038596675</v>
       </c>
       <c r="C19">
-        <v>194033.31338307701</v>
+        <v>164169.6853781637</v>
       </c>
       <c r="D19">
-        <v>118.7567547364482</v>
+        <v>37.195899933544318</v>
       </c>
       <c r="E19">
-        <v>3740.2718986397022</v>
+        <v>11688.201214175329</v>
       </c>
       <c r="F19">
-        <v>276.92231896706591</v>
+        <v>317.20633174157138</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -2929,19 +2929,19 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>28.861153505584191</v>
+        <v>28.815179158976822</v>
       </c>
       <c r="C20">
-        <v>170045.50226050129</v>
+        <v>190958.90196549299</v>
       </c>
       <c r="D20">
-        <v>65.460123960027232</v>
+        <v>567.94257187004803</v>
       </c>
       <c r="E20">
-        <v>15744.811327268861</v>
+        <v>9710.4839358734444</v>
       </c>
       <c r="F20">
-        <v>254.64368882012249</v>
+        <v>442.81993222860098</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -2949,19 +2949,19 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>28.901373009533021</v>
+        <v>28.798873436044079</v>
       </c>
       <c r="C21">
-        <v>202855.2236078126</v>
+        <v>164473.6015223843</v>
       </c>
       <c r="D21">
-        <v>34.658613112974699</v>
+        <v>70.074673695882836</v>
       </c>
       <c r="E21">
-        <v>8834.4239675871231</v>
+        <v>11149.0577841173</v>
       </c>
       <c r="F21">
-        <v>228.06910344002361</v>
+        <v>355.26944188090391</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2969,19 +2969,19 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>28.830800936148211</v>
+        <v>28.85289932029162</v>
       </c>
       <c r="C22">
-        <v>160823.09660025159</v>
+        <v>261250.14888614861</v>
       </c>
       <c r="D22">
-        <v>75.195672651738661</v>
+        <v>69.98584505559225</v>
       </c>
       <c r="E22">
-        <v>3694.9254069839408</v>
+        <v>7357.2394696759757</v>
       </c>
       <c r="F22">
-        <v>228.58776420296991</v>
+        <v>430.84515638255431</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -2989,19 +2989,19 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>28.88854013110798</v>
+        <v>28.86945702563504</v>
       </c>
       <c r="C23">
-        <v>261488.67028075521</v>
+        <v>184068.40079683249</v>
       </c>
       <c r="D23">
-        <v>62.592642097052817</v>
+        <v>26.142746112027439</v>
       </c>
       <c r="E23">
-        <v>9228.7180581712037</v>
+        <v>10768.26664148407</v>
       </c>
       <c r="F23">
-        <v>263.5350466799506</v>
+        <v>458.81696676493772</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -3009,19 +3009,19 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>28.74201591807137</v>
+        <v>28.841895889795168</v>
       </c>
       <c r="C24">
-        <v>149578.21532836399</v>
+        <v>177296.81287678331</v>
       </c>
       <c r="D24">
-        <v>29.742489813847879</v>
+        <v>38.7025690814</v>
       </c>
       <c r="E24">
-        <v>10282.93311425972</v>
+        <v>4792.0006553261755</v>
       </c>
       <c r="F24">
-        <v>213.55986936429929</v>
+        <v>451.36867291473891</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -3029,19 +3029,19 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>28.87878500673715</v>
+        <v>28.768604708616859</v>
       </c>
       <c r="C25">
-        <v>113135.9092728862</v>
+        <v>197725.8519129242</v>
       </c>
       <c r="D25">
-        <v>81.814873926508128</v>
+        <v>50.087904043711603</v>
       </c>
       <c r="E25">
-        <v>6599.139885869964</v>
+        <v>3282.1179197080769</v>
       </c>
       <c r="F25">
-        <v>229.15341049824039</v>
+        <v>431.86109576537689</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -3049,19 +3049,19 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>28.86043320908697</v>
+        <v>28.84173715763399</v>
       </c>
       <c r="C26">
-        <v>195637.26428908479</v>
+        <v>169130.3116684409</v>
       </c>
       <c r="D26">
-        <v>79.781125825231399</v>
+        <v>111.0866660594305</v>
       </c>
       <c r="E26">
-        <v>8949.5396671766102</v>
+        <v>3712.7770227487699</v>
       </c>
       <c r="F26">
-        <v>165.84521599395461</v>
+        <v>453.93052596271463</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -3069,19 +3069,19 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>28.906548659658561</v>
+        <v>28.882395911146869</v>
       </c>
       <c r="C27">
-        <v>167877.9335503008</v>
+        <v>178614.72483679769</v>
       </c>
       <c r="D27">
-        <v>100.19726616512919</v>
+        <v>28.184936709616348</v>
       </c>
       <c r="E27">
-        <v>8611.0953862201459</v>
+        <v>11004.705758037069</v>
       </c>
       <c r="F27">
-        <v>217.23372955977061</v>
+        <v>369.92134740705018</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -3089,19 +3089,19 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>28.759808186619171</v>
+        <v>28.87290415692922</v>
       </c>
       <c r="C28">
-        <v>223210.52975418899</v>
+        <v>126377.24176287799</v>
       </c>
       <c r="D28">
-        <v>29.610974764208731</v>
+        <v>182.19580453241761</v>
       </c>
       <c r="E28">
-        <v>11619.344643398839</v>
+        <v>10448.11193396041</v>
       </c>
       <c r="F28">
-        <v>255.6567713634586</v>
+        <v>256.15558386165429</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -3109,19 +3109,19 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>28.755661324232619</v>
+        <v>28.850853378865509</v>
       </c>
       <c r="C29">
-        <v>235743.7761416994</v>
+        <v>171507.28277022831</v>
       </c>
       <c r="D29">
-        <v>58.266982669444488</v>
+        <v>2654.305773772182</v>
       </c>
       <c r="E29">
-        <v>8158.6229859178738</v>
+        <v>5305.7747740707882</v>
       </c>
       <c r="F29">
-        <v>238.22368022244081</v>
+        <v>368.678856645145</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -3129,19 +3129,19 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>28.771668015569421</v>
+        <v>28.673623396379451</v>
       </c>
       <c r="C30">
-        <v>233626.50345522561</v>
+        <v>243340.86041523091</v>
       </c>
       <c r="D30">
-        <v>46.011733563541142</v>
+        <v>35.826768107034297</v>
       </c>
       <c r="E30">
-        <v>7487.3356069815609</v>
+        <v>10243.467146795099</v>
       </c>
       <c r="F30">
-        <v>255.8929729329725</v>
+        <v>401.88294054993099</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -3149,19 +3149,19 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>28.769480974244711</v>
+        <v>28.879618092263058</v>
       </c>
       <c r="C31">
-        <v>248355.09268074229</v>
+        <v>243748.66387953339</v>
       </c>
       <c r="D31">
-        <v>50.738291990706472</v>
+        <v>162.3293866096673</v>
       </c>
       <c r="E31">
-        <v>5793.4355841754677</v>
+        <v>12007.53380027946</v>
       </c>
       <c r="F31">
-        <v>230.25834637589779</v>
+        <v>352.56462421602788</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -3226,19 +3226,19 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3.6074861631263389E-7</v>
+        <v>2.7082314035808958E-7</v>
       </c>
       <c r="C2">
-        <v>1.043254934484982</v>
+        <v>1.034972210995144</v>
       </c>
       <c r="D2">
-        <v>1.6649329655024081E-3</v>
+        <v>8.1261929785547693E-4</v>
       </c>
       <c r="E2">
-        <v>0.65118383572943273</v>
+        <v>0.81794507706164787</v>
       </c>
       <c r="F2">
-        <v>9.489562716758948E-2</v>
+        <v>0.17503057163669231</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3246,19 +3246,19 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5.2095325830947559E-8</v>
+        <v>6.7617790577845227E-7</v>
       </c>
       <c r="C3">
-        <v>1.0388638458978321</v>
+        <v>1.0423244709576731</v>
       </c>
       <c r="D3">
-        <v>8.5697645179918513E-3</v>
+        <v>2.6931895230056121E-2</v>
       </c>
       <c r="E3">
-        <v>0.6024905078373155</v>
+        <v>0.89832351528145771</v>
       </c>
       <c r="F3">
-        <v>0.1060441383785143</v>
+        <v>0.1619935365194396</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3266,19 +3266,19 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>5.2878500722552957E-7</v>
+        <v>2.0188278648802791E-7</v>
       </c>
       <c r="C4">
-        <v>1.0469114365587511</v>
+        <v>1.0380275790426781</v>
       </c>
       <c r="D4">
-        <v>1.274835003343799E-3</v>
+        <v>4.3047341806820016E-3</v>
       </c>
       <c r="E4">
-        <v>0.84234668833982329</v>
+        <v>0.84300392462308171</v>
       </c>
       <c r="F4">
-        <v>7.6279702285897755E-2</v>
+        <v>0.16401066283987559</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -3286,19 +3286,19 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1.6189474416616889E-7</v>
+        <v>1.55013124447656E-7</v>
       </c>
       <c r="C5">
-        <v>1.045083614879222</v>
+        <v>1.0393076916182691</v>
       </c>
       <c r="D5">
-        <v>2.5197994246207718E-3</v>
+        <v>0.35133341333595203</v>
       </c>
       <c r="E5">
-        <v>0.68799165982957944</v>
+        <v>0.62127286491414246</v>
       </c>
       <c r="F5">
-        <v>0.1145524322369481</v>
+        <v>0.17656167694386929</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -3306,19 +3306,19 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2.8352909342554971E-7</v>
+        <v>1.116760507275205E-2</v>
       </c>
       <c r="C6">
-        <v>1.0375437227971691</v>
+        <v>1.0426815578028561</v>
       </c>
       <c r="D6">
-        <v>0.17533996772862501</v>
+        <v>1.743554241445788E-2</v>
       </c>
       <c r="E6">
-        <v>0.78748858938182731</v>
+        <v>0.78575352441096724</v>
       </c>
       <c r="F6">
-        <v>9.3061126956372142E-2</v>
+        <v>0.1820723815890124</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -3326,19 +3326,19 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>5.8705117584878508E-6</v>
+        <v>1.5764994976130711E-7</v>
       </c>
       <c r="C7">
-        <v>1.0398506514945669</v>
+        <v>1.037470509741016</v>
       </c>
       <c r="D7">
-        <v>0.17652415705085869</v>
+        <v>7.7454895675121982E-4</v>
       </c>
       <c r="E7">
-        <v>0.75840402237000526</v>
+        <v>0.6826475234778554</v>
       </c>
       <c r="F7">
-        <v>8.7393702205437851E-2</v>
+        <v>0.18643641271933381</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -3346,19 +3346,19 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2.7270704024973109E-6</v>
+        <v>2.129048590759908E-7</v>
       </c>
       <c r="C8">
-        <v>1.031655882373314</v>
+        <v>1.044860854927131</v>
       </c>
       <c r="D8">
-        <v>1.3939510085174691E-2</v>
+        <v>8.5487069599204935E-3</v>
       </c>
       <c r="E8">
-        <v>0.75756961666701317</v>
+        <v>0.74448522143034135</v>
       </c>
       <c r="F8">
-        <v>0.1012776633426424</v>
+        <v>0.1740315126578931</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -3366,19 +3366,19 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>4.2133462629934121E-7</v>
+        <v>1.5071245718090151E-7</v>
       </c>
       <c r="C9">
-        <v>1.0437523140575931</v>
+        <v>1.039974730803841</v>
       </c>
       <c r="D9">
-        <v>1.3192175709262339E-3</v>
+        <v>0.1760126981519565</v>
       </c>
       <c r="E9">
-        <v>0.73526532597863814</v>
+        <v>0.74080435779813247</v>
       </c>
       <c r="F9">
-        <v>0.1127297442809355</v>
+        <v>0.17804473089311201</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -3386,19 +3386,19 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>6.0265890888810958E-7</v>
+        <v>1.2779453295586049E-7</v>
       </c>
       <c r="C10">
-        <v>1.0434110990052241</v>
+        <v>1.039281054390502</v>
       </c>
       <c r="D10">
-        <v>0.17406881858323611</v>
+        <v>1.5564351976531721E-2</v>
       </c>
       <c r="E10">
-        <v>0.71573236747752467</v>
+        <v>0.82436106768901685</v>
       </c>
       <c r="F10">
-        <v>9.0141747565823493E-2</v>
+        <v>0.19355409572933571</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -3406,19 +3406,19 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1.1607288159552811E-2</v>
+        <v>4.469497971726355E-8</v>
       </c>
       <c r="C11">
-        <v>1.038612086550778</v>
+        <v>1.035566293638436</v>
       </c>
       <c r="D11">
-        <v>1.513724620704648E-3</v>
+        <v>1.199806619417987E-3</v>
       </c>
       <c r="E11">
-        <v>0.74336391188011697</v>
+        <v>0.71220605554188654</v>
       </c>
       <c r="F11">
-        <v>8.5878940046150265E-2</v>
+        <v>0.1231383277772532</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -3426,19 +3426,19 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>9.6735519927726443E-8</v>
+        <v>3.0071617862503791E-7</v>
       </c>
       <c r="C12">
-        <v>1.0349546971029959</v>
+        <v>1.0349150249645169</v>
       </c>
       <c r="D12">
-        <v>1.5648342575016461E-3</v>
+        <v>2.892762860028375E-4</v>
       </c>
       <c r="E12">
-        <v>0.63873791644274713</v>
+        <v>0.68849473230078662</v>
       </c>
       <c r="F12">
-        <v>8.0736562938683587E-2</v>
+        <v>0.1706758416286682</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -3446,19 +3446,19 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>3.2804313676582098E-7</v>
+        <v>4.0518746202700129E-7</v>
       </c>
       <c r="C13">
-        <v>1.038573058106206</v>
+        <v>1.0381116852261101</v>
       </c>
       <c r="D13">
-        <v>7.8716741163388226E-3</v>
+        <v>4.1871478116265459E-3</v>
       </c>
       <c r="E13">
-        <v>0.75205072390213656</v>
+        <v>0.79486192865600347</v>
       </c>
       <c r="F13">
-        <v>6.466783971056167E-2</v>
+        <v>0.20277619566612329</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -3466,19 +3466,19 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1.5146148998335109E-6</v>
+        <v>6.6791331365667617E-7</v>
       </c>
       <c r="C14">
-        <v>1.032415026753251</v>
+        <v>1.039977460982239</v>
       </c>
       <c r="D14">
-        <v>5.2279669567578679E-4</v>
+        <v>0.17610772543750011</v>
       </c>
       <c r="E14">
-        <v>0.86257793183556641</v>
+        <v>0.75661503055218782</v>
       </c>
       <c r="F14">
-        <v>9.8093416443623904E-2</v>
+        <v>0.15548699178977329</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -3486,19 +3486,19 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>6.0280123681533127E-7</v>
+        <v>1.230714627986629E-7</v>
       </c>
       <c r="C15">
-        <v>1.0452348850633839</v>
+        <v>1.030146662008333</v>
       </c>
       <c r="D15">
-        <v>2.6566279570333081E-2</v>
+        <v>7.476823169497715E-4</v>
       </c>
       <c r="E15">
-        <v>0.75740305436116062</v>
+        <v>0.73811572194279473</v>
       </c>
       <c r="F15">
-        <v>0.10877359972372209</v>
+        <v>0.19978920444975881</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -3506,19 +3506,19 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>5.1468111905705882E-7</v>
+        <v>2.1125755655937439E-7</v>
       </c>
       <c r="C16">
-        <v>1.0398555167460399</v>
+        <v>1.0403859966439031</v>
       </c>
       <c r="D16">
-        <v>4.0740921831181609E-3</v>
+        <v>1.0123393757739409E-3</v>
       </c>
       <c r="E16">
-        <v>0.71365570580879822</v>
+        <v>0.49882217665390949</v>
       </c>
       <c r="F16">
-        <v>8.1027879120819324E-2</v>
+        <v>0.1536180904291865</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -3526,19 +3526,19 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.13140370441353519</v>
+        <v>2.097477329598973E-7</v>
       </c>
       <c r="C17">
-        <v>1.042374899675258</v>
+        <v>1.046716875244913</v>
       </c>
       <c r="D17">
-        <v>2.9814942907471002E-2</v>
+        <v>1.9924682284033768E-3</v>
       </c>
       <c r="E17">
-        <v>0.83678319861376171</v>
+        <v>0.74730526874897663</v>
       </c>
       <c r="F17">
-        <v>8.5145425722002899E-2</v>
+        <v>0.1242611792660543</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -3546,19 +3546,19 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1.8110199169196759E-6</v>
+        <v>1.328600518712975E-6</v>
       </c>
       <c r="C18">
-        <v>1.041430215027362</v>
+        <v>1.0250444470793589</v>
       </c>
       <c r="D18">
-        <v>1.4177650327099609E-3</v>
+        <v>2.699444705554499E-2</v>
       </c>
       <c r="E18">
-        <v>0.77148324598945606</v>
+        <v>0.73779109094046613</v>
       </c>
       <c r="F18">
-        <v>8.4737193656303389E-2</v>
+        <v>0.19343575550479161</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -3566,19 +3566,19 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>8.7693791051002279E-7</v>
+        <v>1.150638165081652E-6</v>
       </c>
       <c r="C19">
-        <v>1.039986609653716</v>
+        <v>1.050883693080181</v>
       </c>
       <c r="D19">
-        <v>1.1684964343583459E-3</v>
+        <v>0.17660105560893449</v>
       </c>
       <c r="E19">
-        <v>0.72912796373684674</v>
+        <v>0.91097775153982619</v>
       </c>
       <c r="F19">
-        <v>8.9940563413056895E-2</v>
+        <v>0.1165454910553962</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -3586,19 +3586,19 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>5.1695559843967231E-7</v>
+        <v>9.6775275126859128E-8</v>
       </c>
       <c r="C20">
-        <v>1.023511717628087</v>
+        <v>1.0455968778373359</v>
       </c>
       <c r="D20">
-        <v>9.3074198638174455E-3</v>
+        <v>1.243563958555072E-4</v>
       </c>
       <c r="E20">
-        <v>0.74848717417113209</v>
+        <v>0.70027456186294024</v>
       </c>
       <c r="F20">
-        <v>0.1161758015695417</v>
+        <v>0.1246380750892877</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -3606,19 +3606,19 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>4.5915591917466969E-7</v>
+        <v>1.3411499699689239E-7</v>
       </c>
       <c r="C21">
-        <v>1.0322102917635161</v>
+        <v>1.0404769585424529</v>
       </c>
       <c r="D21">
-        <v>4.152217219069998E-4</v>
+        <v>2.6216203324356262E-3</v>
       </c>
       <c r="E21">
-        <v>0.82890078557957192</v>
+        <v>0.7510788258769443</v>
       </c>
       <c r="F21">
-        <v>8.8322236150152666E-2</v>
+        <v>0.15824258031701269</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -3626,19 +3626,19 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>3.013588031341996E-7</v>
+        <v>7.5467738358536707E-7</v>
       </c>
       <c r="C22">
-        <v>1.0450965784334081</v>
+        <v>1.0405876271482759</v>
       </c>
       <c r="D22">
-        <v>1.3779867727685691E-3</v>
+        <v>3.1534027167345879E-4</v>
       </c>
       <c r="E22">
-        <v>0.62461172208084226</v>
+        <v>0.82890790477023613</v>
       </c>
       <c r="F22">
-        <v>9.3027660817033841E-2</v>
+        <v>0.14850784996739549</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -3646,19 +3646,19 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>6.3021074969915603E-5</v>
+        <v>2.456050587684722E-6</v>
       </c>
       <c r="C23">
-        <v>1.046987792968352</v>
+        <v>1.0392811606167249</v>
       </c>
       <c r="D23">
-        <v>8.0040352452270813E-4</v>
+        <v>1.0272649818172659E-3</v>
       </c>
       <c r="E23">
-        <v>0.70586089567635646</v>
+        <v>0.75799203498773315</v>
       </c>
       <c r="F23">
-        <v>0.1041859164828129</v>
+        <v>0.15209021172115181</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -3666,19 +3666,19 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>3.4353181477264632E-7</v>
+        <v>7.2063571265879034E-7</v>
       </c>
       <c r="C24">
-        <v>1.038047788208774</v>
+        <v>1.0422203180880529</v>
       </c>
       <c r="D24">
-        <v>3.4902553464943859E-4</v>
+        <v>6.5541122377033023E-4</v>
       </c>
       <c r="E24">
-        <v>0.69193944669310092</v>
+        <v>0.7315669671729208</v>
       </c>
       <c r="F24">
-        <v>0.1121652929887413</v>
+        <v>0.1653261353972586</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -3686,19 +3686,19 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1.4950549154235659E-7</v>
+        <v>8.1335432056128809E-8</v>
       </c>
       <c r="C25">
-        <v>1.029699328310143</v>
+        <v>1.034639703377092</v>
       </c>
       <c r="D25">
-        <v>1.9895258594559981E-4</v>
+        <v>2.6809068266529401E-2</v>
       </c>
       <c r="E25">
-        <v>0.76980257762491056</v>
+        <v>0.55317972336702403</v>
       </c>
       <c r="F25">
-        <v>9.3196804628898899E-2</v>
+        <v>0.1579594432371122</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -3706,19 +3706,19 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1.281655714113761E-6</v>
+        <v>3.6765483979461782E-7</v>
       </c>
       <c r="C26">
-        <v>1.040607089341377</v>
+        <v>1.037655282154121</v>
       </c>
       <c r="D26">
-        <v>4.1707400572854603E-4</v>
+        <v>2.1504918003212301E-4</v>
       </c>
       <c r="E26">
-        <v>0.61059310475415152</v>
+        <v>0.84653373821407085</v>
       </c>
       <c r="F26">
-        <v>8.2889432466017543E-2</v>
+        <v>0.15133620184526911</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -3726,19 +3726,19 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>3.0495452862933092E-7</v>
+        <v>1.3928324513745589E-6</v>
       </c>
       <c r="C27">
-        <v>1.0279454958270331</v>
+        <v>1.0392074143550929</v>
       </c>
       <c r="D27">
-        <v>0.51269256132827734</v>
+        <v>6.3499908660328286E-3</v>
       </c>
       <c r="E27">
-        <v>0.70380154411490059</v>
+        <v>0.80548732193234329</v>
       </c>
       <c r="F27">
-        <v>9.7177550856088146E-2</v>
+        <v>0.17205811587729561</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -3746,19 +3746,19 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>2.9179301819226572E-7</v>
+        <v>4.466939065306264E-7</v>
       </c>
       <c r="C28">
-        <v>1.037194774748156</v>
+        <v>1.0429855095696381</v>
       </c>
       <c r="D28">
-        <v>1.0951001158596709E-3</v>
+        <v>7.9445552935979435E-3</v>
       </c>
       <c r="E28">
-        <v>0.6606042173035509</v>
+        <v>0.83832304408960856</v>
       </c>
       <c r="F28">
-        <v>9.0516653664938773E-2</v>
+        <v>0.1513717974801323</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -3766,19 +3766,19 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>1.493627438398093E-7</v>
+        <v>1.733046098406632E-6</v>
       </c>
       <c r="C29">
-        <v>1.029900035566981</v>
+        <v>1.036575346613978</v>
       </c>
       <c r="D29">
-        <v>9.7518125002460376E-4</v>
+        <v>0.123951593756349</v>
       </c>
       <c r="E29">
-        <v>0.82851515687434318</v>
+        <v>0.61474962799663013</v>
       </c>
       <c r="F29">
-        <v>0.1207989733517888</v>
+        <v>0.1623146642613521</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -3786,19 +3786,19 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>9.6237336488780301E-7</v>
+        <v>4.5710567109225053E-8</v>
       </c>
       <c r="C30">
-        <v>1.0330422306783691</v>
+        <v>1.0470165549933139</v>
       </c>
       <c r="D30">
-        <v>1.353838979111899E-3</v>
+        <v>1.6215901846576839E-3</v>
       </c>
       <c r="E30">
-        <v>0.79123003306787343</v>
+        <v>0.783912504518821</v>
       </c>
       <c r="F30">
-        <v>8.3757295661584075E-2</v>
+        <v>0.16932095262148081</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -3806,19 +3806,19 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>9.901473974061048E-8</v>
+        <v>2.0498409536440221E-7</v>
       </c>
       <c r="C31">
-        <v>1.034963947169907</v>
+        <v>1.0227671591895759</v>
       </c>
       <c r="D31">
-        <v>2.6278588015238298E-3</v>
+        <v>3.4157397994859511E-3</v>
       </c>
       <c r="E31">
-        <v>0.68734666954014634</v>
+        <v>0.66752835955489009</v>
       </c>
       <c r="F31">
-        <v>0.1026117559341191</v>
+        <v>0.20545305198741939</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -3855,8 +3855,8 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3885,19 +3885,19 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>12461.290449476701</v>
+        <v>12458.15277515924</v>
       </c>
       <c r="C2">
-        <v>12491.462002791061</v>
+        <v>12483.20611587086</v>
       </c>
       <c r="D2">
         <v>12459.09890340528</v>
       </c>
       <c r="E2">
-        <v>12500.32269332193</v>
+        <v>12496.511758893999</v>
       </c>
       <c r="F2">
-        <v>12451.79854374694</v>
+        <v>12506.993085069989</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3905,19 +3905,19 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>12463.140493336439</v>
+        <v>12462.335078802091</v>
       </c>
       <c r="C3">
-        <v>12487.93796743098</v>
+        <v>12487.89256474801</v>
       </c>
       <c r="D3">
-        <v>12459.09890340528</v>
+        <v>12451.2140393628</v>
       </c>
       <c r="E3">
-        <v>12509.614558139019</v>
+        <v>12497.05203582083</v>
       </c>
       <c r="F3">
-        <v>12451.94735875384</v>
+        <v>12506.25828114145</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3925,19 +3925,19 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>12457.366840323421</v>
+        <v>12462.122681199689</v>
       </c>
       <c r="C4">
-        <v>12482.31186432598</v>
+        <v>12497.01722044863</v>
       </c>
       <c r="D4">
         <v>12466.98376744776</v>
       </c>
       <c r="E4">
-        <v>12515.08189180676</v>
+        <v>12490.41660763168</v>
       </c>
       <c r="F4">
-        <v>12452.013942222489</v>
+        <v>12507.18220030719</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -3945,19 +3945,19 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>12455.9830268559</v>
+        <v>12464.46200062081</v>
       </c>
       <c r="C5">
-        <v>12492.430234310639</v>
+        <v>12493.11460813192</v>
       </c>
       <c r="D5">
         <v>12451.2140393628</v>
       </c>
       <c r="E5">
-        <v>12509.9678388395</v>
+        <v>12479.238452672669</v>
       </c>
       <c r="F5">
-        <v>12451.759372647681</v>
+        <v>12499.629391935219</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -3965,19 +3965,19 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>12464.272534071961</v>
+        <v>12456.087115854611</v>
       </c>
       <c r="C6">
-        <v>12485.647570260409</v>
+        <v>12503.84347892752</v>
       </c>
       <c r="D6">
-        <v>12451.2140393628</v>
+        <v>12466.98376744776</v>
       </c>
       <c r="E6">
-        <v>12499.924924274321</v>
+        <v>12491.264058756131</v>
       </c>
       <c r="F6">
-        <v>12451.78023664899</v>
+        <v>12505.24693536216</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -3985,19 +3985,19 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>12460.114799994089</v>
+        <v>12458.85603797723</v>
       </c>
       <c r="C7">
-        <v>12500.26812662086</v>
+        <v>12487.95242641774</v>
       </c>
       <c r="D7">
-        <v>12474.868631490241</v>
+        <v>12451.2140393628</v>
       </c>
       <c r="E7">
-        <v>12515.489259379799</v>
+        <v>12507.36464592379</v>
       </c>
       <c r="F7">
-        <v>12451.745100289379</v>
+        <v>12506.80352470326</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -4005,19 +4005,19 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>12460.18344212758</v>
+        <v>12461.87510441313</v>
       </c>
       <c r="C8">
-        <v>12501.465179435771</v>
+        <v>12481.69752574465</v>
       </c>
       <c r="D8">
-        <v>12466.98376744776</v>
+        <v>12451.2140393628</v>
       </c>
       <c r="E8">
-        <v>12495.592694708899</v>
+        <v>12508.452605269949</v>
       </c>
       <c r="F8">
-        <v>12451.882927197121</v>
+        <v>12505.173522350549</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -4025,19 +4025,19 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>12463.869169169549</v>
+        <v>12461.502984022631</v>
       </c>
       <c r="C9">
-        <v>12486.060761976831</v>
+        <v>12486.38152800492</v>
       </c>
       <c r="D9">
         <v>12459.09890340528</v>
       </c>
       <c r="E9">
-        <v>12506.881293481731</v>
+        <v>12494.140447593551</v>
       </c>
       <c r="F9">
-        <v>12451.924276205649</v>
+        <v>12499.89464711001</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -4045,19 +4045,19 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>12456.019644604359</v>
+        <v>12460.37737892794</v>
       </c>
       <c r="C10">
-        <v>12483.605969978051</v>
+        <v>12480.672420066339</v>
       </c>
       <c r="D10">
-        <v>12482.753495532719</v>
+        <v>12459.09890340528</v>
       </c>
       <c r="E10">
-        <v>12500.23509867543</v>
+        <v>12490.845450256669</v>
       </c>
       <c r="F10">
-        <v>12451.68989447165</v>
+        <v>12505.048848792479</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -4065,19 +4065,19 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>12456.37051965701</v>
+        <v>12460.872787491389</v>
       </c>
       <c r="C11">
-        <v>12497.51768997223</v>
+        <v>12493.44899707408</v>
       </c>
       <c r="D11">
         <v>12459.09890340528</v>
       </c>
       <c r="E11">
-        <v>12508.264012600939</v>
+        <v>12505.96401495138</v>
       </c>
       <c r="F11">
-        <v>12451.750579112781</v>
+        <v>12503.240566817431</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -4085,19 +4085,19 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>12463.88106622435</v>
+        <v>12453.4630273169</v>
       </c>
       <c r="C12">
-        <v>12486.44173214866</v>
+        <v>12489.18211174408</v>
       </c>
       <c r="D12">
-        <v>12459.09890340528</v>
+        <v>12451.2140393628</v>
       </c>
       <c r="E12">
-        <v>12506.437217613169</v>
+        <v>12505.956646618069</v>
       </c>
       <c r="F12">
-        <v>12451.94221047463</v>
+        <v>12495.949290967401</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -4105,19 +4105,19 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>12458.18058770328</v>
+        <v>12459.109224094749</v>
       </c>
       <c r="C13">
-        <v>12487.359054739431</v>
+        <v>12488.27641472418</v>
       </c>
       <c r="D13">
-        <v>12451.2140393628</v>
+        <v>12459.09890340528</v>
       </c>
       <c r="E13">
-        <v>12489.83552332131</v>
+        <v>12514.061188484329</v>
       </c>
       <c r="F13">
-        <v>12451.888916669721</v>
+        <v>12520.22288332943</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -4125,19 +4125,19 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>12458.895948042589</v>
+        <v>12458.838770552509</v>
       </c>
       <c r="C14">
-        <v>12488.61232744377</v>
+        <v>12493.19976194469</v>
       </c>
       <c r="D14">
         <v>12466.98376744776</v>
       </c>
       <c r="E14">
-        <v>12496.972873517559</v>
+        <v>12493.179708062509</v>
       </c>
       <c r="F14">
-        <v>12451.567212417351</v>
+        <v>12498.136488586289</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -4145,19 +4145,19 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>12469.291069372701</v>
+        <v>12464.55095007556</v>
       </c>
       <c r="C15">
-        <v>12491.41708650964</v>
+        <v>12485.419418519459</v>
       </c>
       <c r="D15">
-        <v>12466.98376744776</v>
+        <v>12459.09890340528</v>
       </c>
       <c r="E15">
-        <v>12490.99629996206</v>
+        <v>12498.45624144397</v>
       </c>
       <c r="F15">
-        <v>12451.72235210221</v>
+        <v>12514.040292941871</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -4165,19 +4165,19 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>12459.227543477789</v>
+        <v>12463.251704799821</v>
       </c>
       <c r="C16">
-        <v>12487.71693124684</v>
+        <v>12479.289783687371</v>
       </c>
       <c r="D16">
-        <v>12451.2140393628</v>
+        <v>12459.09890340528</v>
       </c>
       <c r="E16">
-        <v>12512.122370317429</v>
+        <v>12499.956660330379</v>
       </c>
       <c r="F16">
-        <v>12451.67793358913</v>
+        <v>12499.97772463764</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -4185,19 +4185,19 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>12460.78569174201</v>
+        <v>12457.63982034322</v>
       </c>
       <c r="C17">
-        <v>12488.44788761607</v>
+        <v>12476.75976463078</v>
       </c>
       <c r="D17">
-        <v>12451.2140393628</v>
+        <v>12466.98376744776</v>
       </c>
       <c r="E17">
-        <v>12491.33749647426</v>
+        <v>12503.456418050921</v>
       </c>
       <c r="F17">
-        <v>12451.862403802659</v>
+        <v>12506.371081879979</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -4205,19 +4205,19 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>12457.82102011686</v>
+        <v>12456.91478722214</v>
       </c>
       <c r="C18">
-        <v>12479.61980818663</v>
+        <v>12490.56448151047</v>
       </c>
       <c r="D18">
-        <v>12482.753495532719</v>
+        <v>12459.09890340528</v>
       </c>
       <c r="E18">
-        <v>12504.368700901739</v>
+        <v>12490.8394594248</v>
       </c>
       <c r="F18">
-        <v>12451.825938332269</v>
+        <v>12511.65115430506</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -4225,19 +4225,19 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>12455.59428243191</v>
+        <v>12465.16180486447</v>
       </c>
       <c r="C19">
-        <v>12489.022475002041</v>
+        <v>12477.297438543461</v>
       </c>
       <c r="D19">
-        <v>12451.2140393628</v>
+        <v>12466.98376744776</v>
       </c>
       <c r="E19">
-        <v>12507.73576304392</v>
+        <v>12523.302090140671</v>
       </c>
       <c r="F19">
-        <v>12451.737225716581</v>
+        <v>12503.06106784535</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -4245,19 +4245,19 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>12460.54115318595</v>
+        <v>12459.83797604856</v>
       </c>
       <c r="C20">
-        <v>12492.78262743296</v>
+        <v>12481.210284059471</v>
       </c>
       <c r="D20">
-        <v>12482.753495532719</v>
+        <v>12459.09890340528</v>
       </c>
       <c r="E20">
-        <v>12493.05396236241</v>
+        <v>12480.70591120823</v>
       </c>
       <c r="F20">
-        <v>12451.85709876142</v>
+        <v>12498.22504392966</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -4265,19 +4265,19 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>12460.21829351457</v>
+        <v>12459.215712982639</v>
       </c>
       <c r="C21">
-        <v>12485.954964796691</v>
+        <v>12474.915040528769</v>
       </c>
       <c r="D21">
-        <v>12451.2140393628</v>
+        <v>12459.09890340528</v>
       </c>
       <c r="E21">
-        <v>12472.60016199852</v>
+        <v>12504.607162995781</v>
       </c>
       <c r="F21">
-        <v>12451.855790122239</v>
+        <v>12503.72772614787</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -4285,19 +4285,19 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>12459.919822390561</v>
+        <v>12462.351645154429</v>
       </c>
       <c r="C22">
-        <v>12479.24758494771</v>
+        <v>12489.909418992151</v>
       </c>
       <c r="D22">
-        <v>12466.98376744776</v>
+        <v>12474.868631490241</v>
       </c>
       <c r="E22">
-        <v>12497.287032989119</v>
+        <v>12502.80268743212</v>
       </c>
       <c r="F22">
-        <v>12451.793401387151</v>
+        <v>12509.336349764189</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -4305,19 +4305,19 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>12462.2895360971</v>
+        <v>12458.68586389658</v>
       </c>
       <c r="C23">
-        <v>12485.77360272648</v>
+        <v>12484.6854296606</v>
       </c>
       <c r="D23">
-        <v>12474.868631490241</v>
+        <v>12490.6383595752</v>
       </c>
       <c r="E23">
-        <v>12490.35755731383</v>
+        <v>12507.81743178014</v>
       </c>
       <c r="F23">
-        <v>12451.627827988101</v>
+        <v>12497.74242149846</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -4325,19 +4325,19 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>12460.93692860814</v>
+        <v>12462.176358785229</v>
       </c>
       <c r="C24">
-        <v>12482.044026081099</v>
+        <v>12487.67788454754</v>
       </c>
       <c r="D24">
-        <v>12459.09890340528</v>
+        <v>12451.2140393628</v>
       </c>
       <c r="E24">
-        <v>12483.284521589259</v>
+        <v>12502.823262162319</v>
       </c>
       <c r="F24">
-        <v>12451.89297745387</v>
+        <v>12508.208215353859</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -4345,19 +4345,19 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>12465.060024102429</v>
+        <v>12464.83459978598</v>
       </c>
       <c r="C25">
-        <v>12473.61957765517</v>
+        <v>12498.41169470008</v>
       </c>
       <c r="D25">
-        <v>12482.753495532719</v>
+        <v>12466.98376744776</v>
       </c>
       <c r="E25">
-        <v>12504.805939361149</v>
+        <v>12514.47931490874</v>
       </c>
       <c r="F25">
-        <v>12451.80364734865</v>
+        <v>12507.575146578931</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -4365,19 +4365,19 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>12464.414807905699</v>
+        <v>12461.24899128743</v>
       </c>
       <c r="C26">
-        <v>12489.95142471436</v>
+        <v>12492.44793415302</v>
       </c>
       <c r="D26">
-        <v>12466.98376744776</v>
+        <v>12459.09890340528</v>
       </c>
       <c r="E26">
-        <v>12515.620964128821</v>
+        <v>12507.15653498266</v>
       </c>
       <c r="F26">
-        <v>12451.57417876348</v>
+        <v>12513.527876389029</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -4385,19 +4385,19 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>12454.968711660151</v>
+        <v>12456.89668437203</v>
       </c>
       <c r="C27">
-        <v>12492.83463569362</v>
+        <v>12491.919482777101</v>
       </c>
       <c r="D27">
         <v>12466.98376744776</v>
       </c>
       <c r="E27">
-        <v>12491.39249096708</v>
+        <v>12498.08376079068</v>
       </c>
       <c r="F27">
-        <v>12451.68386001549</v>
+        <v>12510.193751505331</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -4405,19 +4405,19 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>12459.146179420381</v>
+        <v>12458.051589203969</v>
       </c>
       <c r="C28">
-        <v>12483.70741776871</v>
+        <v>12493.427952319909</v>
       </c>
       <c r="D28">
-        <v>12474.868631490241</v>
+        <v>12451.2140393628</v>
       </c>
       <c r="E28">
-        <v>12518.12372920039</v>
+        <v>12509.38389031417</v>
       </c>
       <c r="F28">
-        <v>12451.759008529691</v>
+        <v>12509.406790123239</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -4425,19 +4425,19 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>12468.356245542829</v>
+        <v>12455.85228029302</v>
       </c>
       <c r="C29">
-        <v>12499.713020976051</v>
+        <v>12490.302622629921</v>
       </c>
       <c r="D29">
-        <v>12459.09890340528</v>
+        <v>12451.2140393628</v>
       </c>
       <c r="E29">
-        <v>12498.721196615639</v>
+        <v>12498.67992931369</v>
       </c>
       <c r="F29">
-        <v>12451.92231523537</v>
+        <v>12506.78352960393</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -4445,19 +4445,19 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>12459.105992533119</v>
+        <v>12456.38436602446</v>
       </c>
       <c r="C30">
-        <v>12482.544507969969</v>
+        <v>12485.433994210131</v>
       </c>
       <c r="D30">
-        <v>12466.98376744776</v>
+        <v>12451.2140393628</v>
       </c>
       <c r="E30">
-        <v>12477.58223739646</v>
+        <v>12504.27693473748</v>
       </c>
       <c r="F30">
-        <v>12451.71135765552</v>
+        <v>12505.241260429641</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -4465,19 +4465,19 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>12461.712381827139</v>
+        <v>12456.178167636701</v>
       </c>
       <c r="C31">
-        <v>12489.98783410856</v>
+        <v>12494.85539624927</v>
       </c>
       <c r="D31">
         <v>12459.09890340528</v>
       </c>
       <c r="E31">
-        <v>12486.22411012576</v>
+        <v>12460.446248226821</v>
       </c>
       <c r="F31">
-        <v>12451.80089927904</v>
+        <v>12510.82958246853</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -4509,16 +4509,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -4546,19 +4546,19 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.5108514927117951</v>
+        <v>1.391897903562912</v>
       </c>
       <c r="C2">
-        <v>47.558002852119429</v>
+        <v>55.965304100698049</v>
       </c>
       <c r="D2">
-        <v>3.468059261852106</v>
+        <v>2.5555965591373591</v>
       </c>
       <c r="E2">
-        <v>10.145294898124231</v>
+        <v>4.493722955975918</v>
       </c>
       <c r="F2">
-        <v>0.83442609995133676</v>
+        <v>1.2229790246179171</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -4566,19 +4566,19 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.17682158556327</v>
+        <v>1.576541694417513</v>
       </c>
       <c r="C3">
-        <v>36.952961100605137</v>
+        <v>48.268173411144417</v>
       </c>
       <c r="D3">
-        <v>1.54504880358432</v>
+        <v>2.3183437099987509</v>
       </c>
       <c r="E3">
-        <v>5.4356186023038138</v>
+        <v>4.5292627047682483</v>
       </c>
       <c r="F3">
-        <v>0.87541366544861188</v>
+        <v>1.5428228644941251</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4586,19 +4586,19 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1.6564129931513181</v>
+        <v>1.5022227804609249</v>
       </c>
       <c r="C4">
-        <v>43.5170516683445</v>
+        <v>59.200628252409629</v>
       </c>
       <c r="D4">
-        <v>1.03308466451806</v>
+        <v>5.0028945892544092</v>
       </c>
       <c r="E4">
-        <v>8.1016455033143995</v>
+        <v>7.4969305175811964</v>
       </c>
       <c r="F4">
-        <v>0.85412075839143398</v>
+        <v>1.014395348721185</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -4606,19 +4606,19 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1.18819368597582</v>
+        <v>1.0717338576829329</v>
       </c>
       <c r="C5">
-        <v>42.040775491527157</v>
+        <v>48.250549919954047</v>
       </c>
       <c r="D5">
-        <v>1.329694375389453</v>
+        <v>2.521535806083985</v>
       </c>
       <c r="E5">
-        <v>6.2137803229985451</v>
+        <v>11.96337429256366</v>
       </c>
       <c r="F5">
-        <v>0.85449779818318716</v>
+        <v>1.584229488440519</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -4626,19 +4626,19 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1.173444745663154</v>
+        <v>1.434457892979899</v>
       </c>
       <c r="C6">
-        <v>54.019167589072893</v>
+        <v>48.584177340492992</v>
       </c>
       <c r="D6">
-        <v>4.8997020060942731</v>
+        <v>2.726880991895138</v>
       </c>
       <c r="E6">
-        <v>6.3954967798754643</v>
+        <v>15.41885508470236</v>
       </c>
       <c r="F6">
-        <v>0.93591528357335352</v>
+        <v>1.483039481826022</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -4646,19 +4646,19 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1.601086558631023</v>
+        <v>1.1826735600959279</v>
       </c>
       <c r="C7">
-        <v>39.94847703514133</v>
+        <v>59.726549436698257</v>
       </c>
       <c r="D7">
-        <v>1.370727920168392</v>
+        <v>2.2277683523926162</v>
       </c>
       <c r="E7">
-        <v>8.9509817098736466</v>
+        <v>12.919249561933711</v>
       </c>
       <c r="F7">
-        <v>0.74100223953815536</v>
+        <v>1.2551567368960399</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -4666,19 +4666,19 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1.043435727283186</v>
+        <v>1.68696388403092</v>
       </c>
       <c r="C8">
-        <v>51.547116446077538</v>
+        <v>51.775070328558613</v>
       </c>
       <c r="D8">
-        <v>6.4879550818817684</v>
+        <v>0.61197711425646784</v>
       </c>
       <c r="E8">
-        <v>5.0347173754147754</v>
+        <v>11.943588436062051</v>
       </c>
       <c r="F8">
-        <v>0.88962903659001524</v>
+        <v>1.1859335413026779</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -4686,19 +4686,19 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1.585249831620946</v>
+        <v>1.586575450019412</v>
       </c>
       <c r="C9">
-        <v>57.54960081405877</v>
+        <v>54.199792423719323</v>
       </c>
       <c r="D9">
-        <v>2.9260342207696839</v>
+        <v>1.545749535652414</v>
       </c>
       <c r="E9">
-        <v>16.484434861663981</v>
+        <v>8.9447985628427578</v>
       </c>
       <c r="F9">
-        <v>0.78029525999823091</v>
+        <v>1.192032377169123</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -4706,19 +4706,19 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1.483578028044273</v>
+        <v>1.3623051599911671</v>
       </c>
       <c r="C10">
-        <v>44.944298732888313</v>
+        <v>54.427298230201004</v>
       </c>
       <c r="D10">
-        <v>1.7242167495063649</v>
+        <v>3.5220037281966219</v>
       </c>
       <c r="E10">
-        <v>11.32964600485179</v>
+        <v>12.419400125290281</v>
       </c>
       <c r="F10">
-        <v>0.87921261869762923</v>
+        <v>1.5277141920170341</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -4726,19 +4726,19 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1.3992976687601311</v>
+        <v>1.5069779805134751</v>
       </c>
       <c r="C11">
-        <v>43.971444312289542</v>
+        <v>41.943767666020911</v>
       </c>
       <c r="D11">
-        <v>0.36827341479035319</v>
+        <v>2.9372047504671999</v>
       </c>
       <c r="E11">
-        <v>11.765460450563509</v>
+        <v>14.37522247250171</v>
       </c>
       <c r="F11">
-        <v>0.91797220662724999</v>
+        <v>1.531732003418171</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -4746,19 +4746,19 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1.2210079654650829</v>
+        <v>1.7758345978010619</v>
       </c>
       <c r="C12">
-        <v>44.236919125828351</v>
+        <v>56.476453945082923</v>
       </c>
       <c r="D12">
-        <v>4.0046972104143714</v>
+        <v>1.3019801678176699</v>
       </c>
       <c r="E12">
-        <v>13.76418608823475</v>
+        <v>8.5373863148570237</v>
       </c>
       <c r="F12">
-        <v>0.84409593120759996</v>
+        <v>1.233192489326707</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -4766,19 +4766,19 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1.2374349013199819</v>
+        <v>0.85091247918334612</v>
       </c>
       <c r="C13">
-        <v>46.263208799564929</v>
+        <v>43.066371422284043</v>
       </c>
       <c r="D13">
-        <v>2.5144235490718989</v>
+        <v>3.0943178128512629</v>
       </c>
       <c r="E13">
-        <v>8.7484814188757998</v>
+        <v>6.9462320040401453</v>
       </c>
       <c r="F13">
-        <v>0.88329998003050514</v>
+        <v>1.30172178879125</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -4786,19 +4786,19 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1.329398005460164</v>
+        <v>1.239347092750763</v>
       </c>
       <c r="C14">
-        <v>36.118720247319168</v>
+        <v>55.854063114005243</v>
       </c>
       <c r="D14">
-        <v>2.9034746561532532</v>
+        <v>2.6338886186059258</v>
       </c>
       <c r="E14">
-        <v>10.24938025720612</v>
+        <v>9.3285240345719682</v>
       </c>
       <c r="F14">
-        <v>0.81184067130506798</v>
+        <v>1.200506823557931</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -4806,19 +4806,19 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1.6923462555751001</v>
+        <v>1.079438953935931</v>
       </c>
       <c r="C15">
-        <v>35.683821779372117</v>
+        <v>58.56875559191333</v>
       </c>
       <c r="D15">
-        <v>3.1560194219461901</v>
+        <v>3.1811178473128199</v>
       </c>
       <c r="E15">
-        <v>8.3920228528156677</v>
+        <v>13.52584576187053</v>
       </c>
       <c r="F15">
-        <v>0.85337060457039615</v>
+        <v>1.204795340747987</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -4826,19 +4826,19 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1.4818926595457389</v>
+        <v>1.1158052009282939</v>
       </c>
       <c r="C16">
-        <v>43.997756687150577</v>
+        <v>52.34566414850574</v>
       </c>
       <c r="D16">
-        <v>0.2448337071898859</v>
+        <v>1.3571047688322451</v>
       </c>
       <c r="E16">
-        <v>6.9306757615691703</v>
+        <v>12.873432037842081</v>
       </c>
       <c r="F16">
-        <v>0.79415960417743503</v>
+        <v>1.4592117915641869</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -4846,19 +4846,19 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1.55241743381563</v>
+        <v>1.648523994057256</v>
       </c>
       <c r="C17">
-        <v>54.03463146913812</v>
+        <v>50.546268197085602</v>
       </c>
       <c r="D17">
-        <v>3.0881203821273608</v>
+        <v>5.9151441118041097</v>
       </c>
       <c r="E17">
-        <v>11.361923339820461</v>
+        <v>10.50802950708373</v>
       </c>
       <c r="F17">
-        <v>0.85354756461412495</v>
+        <v>1.2607868547226051</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -4866,19 +4866,19 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1.7962288491658049</v>
+        <v>1.5556029950492489</v>
       </c>
       <c r="C18">
-        <v>49.912442296745972</v>
+        <v>45.596530383094887</v>
       </c>
       <c r="D18">
-        <v>3.6960936481655322</v>
+        <v>4.9726982054626809</v>
       </c>
       <c r="E18">
-        <v>12.3663850016979</v>
+        <v>18.215896346463079</v>
       </c>
       <c r="F18">
-        <v>0.9511483062746191</v>
+        <v>1.3585157831943171</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -4886,19 +4886,19 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1.467361984697904</v>
+        <v>1.6272811279825909</v>
       </c>
       <c r="C19">
-        <v>48.67001697581609</v>
+        <v>46.839802425955092</v>
       </c>
       <c r="D19">
-        <v>1.277049766928009</v>
+        <v>2.7411075468299311</v>
       </c>
       <c r="E19">
-        <v>14.38788797691212</v>
+        <v>5.9687513110502897</v>
       </c>
       <c r="F19">
-        <v>0.81697362670573603</v>
+        <v>1.3806960500875041</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -4906,19 +4906,19 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>1.2778463943414951</v>
+        <v>1.204307460015354</v>
       </c>
       <c r="C20">
-        <v>55.635502312961378</v>
+        <v>44.386513084553869</v>
       </c>
       <c r="D20">
-        <v>2.8699563677122151</v>
+        <v>4.996789197931907</v>
       </c>
       <c r="E20">
-        <v>12.192850550002101</v>
+        <v>8.2185269052580701</v>
       </c>
       <c r="F20">
-        <v>0.84010526601245905</v>
+        <v>1.173121380554935</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -4926,19 +4926,19 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>1.307419901438917</v>
+        <v>1.084290794559132</v>
       </c>
       <c r="C21">
-        <v>39.921421252833291</v>
+        <v>42.573999175189812</v>
       </c>
       <c r="D21">
-        <v>6.1060145287707597</v>
+        <v>0.55010316535846315</v>
       </c>
       <c r="E21">
-        <v>5.0150025714276696</v>
+        <v>11.900673482281659</v>
       </c>
       <c r="F21">
-        <v>0.77800927216910509</v>
+        <v>1.2863710354848801</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -4946,19 +4946,19 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>1.6325027812867561</v>
+        <v>1.244845145309371</v>
       </c>
       <c r="C22">
-        <v>55.453224484926309</v>
+        <v>38.952121746179138</v>
       </c>
       <c r="D22">
-        <v>1.195773902297973</v>
+        <v>4.7773317596852802</v>
       </c>
       <c r="E22">
-        <v>11.26349061147801</v>
+        <v>10.272893553292461</v>
       </c>
       <c r="F22">
-        <v>0.88361584074811994</v>
+        <v>1.2680247421564881</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -4966,19 +4966,19 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>1.304272379342492</v>
+        <v>1.1107398787499509</v>
       </c>
       <c r="C23">
-        <v>47.689326072862023</v>
+        <v>45.794406499978052</v>
       </c>
       <c r="D23">
-        <v>3.2572948121928191</v>
+        <v>1.794506765526332</v>
       </c>
       <c r="E23">
-        <v>7.9397353975467926</v>
+        <v>6.8132006486400911</v>
       </c>
       <c r="F23">
-        <v>0.87848624669487929</v>
+        <v>1.2690077147665351</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -4986,19 +4986,19 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1.54593717371593</v>
+        <v>1.3432754631504671</v>
       </c>
       <c r="C24">
-        <v>51.775386018733279</v>
+        <v>49.220534803003389</v>
       </c>
       <c r="D24">
-        <v>3.369441939724318</v>
+        <v>2.0245041881045021</v>
       </c>
       <c r="E24">
-        <v>10.13926942148189</v>
+        <v>8.9607717823221247</v>
       </c>
       <c r="F24">
-        <v>0.88688858513647573</v>
+        <v>1.5134779599231261</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -5006,19 +5006,19 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1.5915389658529031</v>
+        <v>1.4672531959906649</v>
       </c>
       <c r="C25">
-        <v>53.970270614670667</v>
+        <v>45.548660286511897</v>
       </c>
       <c r="D25">
-        <v>1.9170720302457069</v>
+        <v>1.3351369782311939</v>
       </c>
       <c r="E25">
-        <v>10.42438035498397</v>
+        <v>9.4920320923919075</v>
       </c>
       <c r="F25">
-        <v>0.84898454365907761</v>
+        <v>1.0547458656019091</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -5026,19 +5026,19 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1.333259542158594</v>
+        <v>1.9327008582294061</v>
       </c>
       <c r="C26">
-        <v>36.60662396403626</v>
+        <v>45.742549794745678</v>
       </c>
       <c r="D26">
-        <v>3.9423062856120938</v>
+        <v>1.112347761094798</v>
       </c>
       <c r="E26">
-        <v>6.694883286582991</v>
+        <v>14.59223655415717</v>
       </c>
       <c r="F26">
-        <v>0.79470909952929514</v>
+        <v>1.357594996498573</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -5046,19 +5046,19 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>1.2819750319852501</v>
+        <v>1.822376488090695</v>
       </c>
       <c r="C27">
-        <v>42.701620978407867</v>
+        <v>50.424590217649147</v>
       </c>
       <c r="D27">
-        <v>3.9674466167669191</v>
+        <v>3.2669650269162021</v>
       </c>
       <c r="E27">
-        <v>13.63095576636832</v>
+        <v>12.272458852464529</v>
       </c>
       <c r="F27">
-        <v>0.84518010152586664</v>
+        <v>1.089559576354836</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -5066,19 +5066,19 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1.447213186734452</v>
+        <v>1.6329116874186269</v>
       </c>
       <c r="C28">
-        <v>34.141566364605588</v>
+        <v>39.584190205385838</v>
       </c>
       <c r="D28">
-        <v>1.8196472330943481</v>
+        <v>2.0182731682115982</v>
       </c>
       <c r="E28">
-        <v>15.622600059632321</v>
+        <v>9.8447045454151905</v>
       </c>
       <c r="F28">
-        <v>0.78029640520258814</v>
+        <v>1.0829787879226671</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -5086,19 +5086,19 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>1.4662880696564979</v>
+        <v>1.0857932560323289</v>
       </c>
       <c r="C29">
-        <v>50.217517917752083</v>
+        <v>46.76440657791666</v>
       </c>
       <c r="D29">
-        <v>2.1810223698118669</v>
+        <v>1.313749053242218</v>
       </c>
       <c r="E29">
-        <v>8.1942741088612276</v>
+        <v>12.69525697865391</v>
       </c>
       <c r="F29">
-        <v>0.91685503301569349</v>
+        <v>1.144218699565807</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -5106,19 +5106,19 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>1.423885345801148</v>
+        <v>1.026554451495326</v>
       </c>
       <c r="C30">
-        <v>46.133637459625291</v>
+        <v>48.620936784275699</v>
       </c>
       <c r="D30">
-        <v>1.1813318883033741</v>
+        <v>6.0265473631878823</v>
       </c>
       <c r="E30">
-        <v>9.5445283316136003</v>
+        <v>18.578991303452671</v>
       </c>
       <c r="F30">
-        <v>0.76173975012189632</v>
+        <v>1.5428449171276331</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -5126,19 +5126,19 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>1.5614151720073051</v>
+        <v>1.4847555324661901</v>
       </c>
       <c r="C31">
-        <v>39.98007601725773</v>
+        <v>46.811579784152649</v>
       </c>
       <c r="D31">
-        <v>4.7250640140736628</v>
+        <v>3.0202634664455741</v>
       </c>
       <c r="E31">
-        <v>9.851287506154641</v>
+        <v>11.17132715550599</v>
       </c>
       <c r="F31">
-        <v>0.78188291381445696</v>
+        <v>1.3127580647754771</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -5170,9 +5170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5207,19 +5205,19 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-6.4158629932701743</v>
+        <v>-6.0593685343411767</v>
       </c>
       <c r="C2">
-        <v>-6.2141436063298174</v>
+        <v>-5.6035148091938822</v>
       </c>
       <c r="D2">
-        <v>-11.04173972248768</v>
+        <v>-7.4105411623214277</v>
       </c>
       <c r="E2">
-        <v>-5.87900890592522</v>
+        <v>-6.4001887969937377</v>
       </c>
       <c r="F2">
-        <v>-9.2575109306945009</v>
+        <v>-5.1228374673112436</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -5227,19 +5225,19 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-5.621591919517571</v>
+        <v>-6.2700488881011127</v>
       </c>
       <c r="C3">
-        <v>-6.7282763769070861</v>
+        <v>-5.7210350829125733</v>
       </c>
       <c r="D3">
-        <v>-8.2892342657461278</v>
+        <v>-8.641990681854546</v>
       </c>
       <c r="E3">
-        <v>-5.6245111175893721</v>
+        <v>-6.6157829094999894</v>
       </c>
       <c r="F3">
-        <v>-8.4591959721176924</v>
+        <v>-6.1193300894634763</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -5247,19 +5245,19 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-5.3233826912818936</v>
+        <v>-7.062685437618125</v>
       </c>
       <c r="C4">
-        <v>-5.8636920366000469</v>
+        <v>-6.4149433703211196</v>
       </c>
       <c r="D4">
-        <v>-12.963493248607371</v>
+        <v>-10.15873964424277</v>
       </c>
       <c r="E4">
-        <v>-6.2535066715960799</v>
+        <v>-6.3955858478843632</v>
       </c>
       <c r="F4">
-        <v>-9.3766230609517454</v>
+        <v>-4.8317487211450292</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -5267,19 +5265,19 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-5.7573258682616162</v>
+        <v>-7.0899780173421743</v>
       </c>
       <c r="C5">
-        <v>-5.9489448502049029</v>
+        <v>-6.2533871411539694</v>
       </c>
       <c r="D5">
-        <v>-7.9502747729454724</v>
+        <v>-9.25835440867953</v>
       </c>
       <c r="E5">
-        <v>-6.6101800965818427</v>
+        <v>-6.6435767471210836</v>
       </c>
       <c r="F5">
-        <v>-9.5484751088584101</v>
+        <v>-5.4031963624482451</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -5287,19 +5285,19 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-5.7975660573967938</v>
+        <v>-6.4050539085658524</v>
       </c>
       <c r="C6">
-        <v>-6.5466176924734629</v>
+        <v>-6.1555429101994834</v>
       </c>
       <c r="D6">
-        <v>-9.9230185930224053</v>
+        <v>-10.82680406364754</v>
       </c>
       <c r="E6">
-        <v>-5.8181517659220576</v>
+        <v>-6.26294682776778</v>
       </c>
       <c r="F6">
-        <v>-10.569551162217399</v>
+        <v>-5.3775401946855066</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -5307,19 +5305,19 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-5.6910261500252526</v>
+        <v>-6.6791733349555686</v>
       </c>
       <c r="C7">
-        <v>-7.1541024665868553</v>
+        <v>-5.9904001339212831</v>
       </c>
       <c r="D7">
-        <v>-9.0093820529763402</v>
+        <v>-9.804239347336944</v>
       </c>
       <c r="E7">
-        <v>-6.8742847193965879</v>
+        <v>-5.0240559608702524</v>
       </c>
       <c r="F7">
-        <v>-9.1131891213731357</v>
+        <v>-5.5060307273839246</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -5327,19 +5325,19 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-6.6408876521009637</v>
+        <v>-6.4215971354995824</v>
       </c>
       <c r="C8">
-        <v>-6.3074975626264864</v>
+        <v>-6.9578110831235094</v>
       </c>
       <c r="D8">
-        <v>-10.46478928015495</v>
+        <v>-7.6608134438661368</v>
       </c>
       <c r="E8">
-        <v>-6.1049387426170796</v>
+        <v>-7.0920356732618623</v>
       </c>
       <c r="F8">
-        <v>-9.7643129086236655</v>
+        <v>-5.9707615144987098</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -5347,19 +5345,19 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-6.1332541381842862</v>
+        <v>-6.3970064102768696</v>
       </c>
       <c r="C9">
-        <v>-6.4495881821731089</v>
+        <v>-7.2290855263051172</v>
       </c>
       <c r="D9">
-        <v>-9.921897385687652</v>
+        <v>-9.7284797599138582</v>
       </c>
       <c r="E9">
-        <v>-6.7413405712921444</v>
+        <v>-6.9007059229056464</v>
       </c>
       <c r="F9">
-        <v>-11.21398213139042</v>
+        <v>-6.1091139166600144</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -5367,19 +5365,19 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-6.2783155494742866</v>
+        <v>-6.2335408982611682</v>
       </c>
       <c r="C10">
-        <v>-5.9688335567960316</v>
+        <v>-6.3912000952243098</v>
       </c>
       <c r="D10">
-        <v>-10.62277742501314</v>
+        <v>-12.29496572665548</v>
       </c>
       <c r="E10">
-        <v>-5.2433218947044944</v>
+        <v>-7.4968556992924658</v>
       </c>
       <c r="F10">
-        <v>-10.931369548651769</v>
+        <v>-5.4985477991861389</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -5387,19 +5385,19 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-6.1305849516799693</v>
+        <v>-5.5478100021771386</v>
       </c>
       <c r="C11">
-        <v>-5.9020209275273317</v>
+        <v>-5.5820143186238926</v>
       </c>
       <c r="D11">
-        <v>-12.491702245846581</v>
+        <v>-8.4930487209432943</v>
       </c>
       <c r="E11">
-        <v>-6.1045788991703551</v>
+        <v>-5.0103507340614248</v>
       </c>
       <c r="F11">
-        <v>-9.8796437858532684</v>
+        <v>-6.3453107492822944</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -5407,19 +5405,19 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-5.9658278003028631</v>
+        <v>-6.1785098925336728</v>
       </c>
       <c r="C12">
-        <v>-6.8773486246471851</v>
+        <v>-6.4181530836951977</v>
       </c>
       <c r="D12">
-        <v>-13.11676240598378</v>
+        <v>-12.607344538148469</v>
       </c>
       <c r="E12">
-        <v>-6.1881337995730474</v>
+        <v>-6.2001198101870969</v>
       </c>
       <c r="F12">
-        <v>-9.7372412052353354</v>
+        <v>-6.0855668268291483</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -5427,19 +5425,19 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-5.6353061753587026</v>
+        <v>-5.9606256168145038</v>
       </c>
       <c r="C13">
-        <v>-6.5518415884418486</v>
+        <v>-6.5378014143940479</v>
       </c>
       <c r="D13">
-        <v>-8.4845265063899529</v>
+        <v>-10.95180637608158</v>
       </c>
       <c r="E13">
-        <v>-6.6602933369840294</v>
+        <v>-5.960910050333454</v>
       </c>
       <c r="F13">
-        <v>-11.123300703557449</v>
+        <v>-6.1407129197277106</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -5447,19 +5445,19 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-6.0989426340835484</v>
+        <v>-7.6128643163535372</v>
       </c>
       <c r="C14">
-        <v>-7.7208127177595358</v>
+        <v>-5.8704603173292949</v>
       </c>
       <c r="D14">
-        <v>-8.8661156921079982</v>
+        <v>-9.1197683302151855</v>
       </c>
       <c r="E14">
-        <v>-6.8972570627925327</v>
+        <v>-5.4095146304412118</v>
       </c>
       <c r="F14">
-        <v>-9.5000566684818715</v>
+        <v>-5.5462344279205373</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -5467,19 +5465,19 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-6.4530842170939966</v>
+        <v>-5.7314839875646264</v>
       </c>
       <c r="C15">
-        <v>-5.7451255188068426</v>
+        <v>-6.1030031442713559</v>
       </c>
       <c r="D15">
-        <v>-10.113944384334159</v>
+        <v>-7.8218725571369969</v>
       </c>
       <c r="E15">
-        <v>-5.4354853871488826</v>
+        <v>-6.2999167088414749</v>
       </c>
       <c r="F15">
-        <v>-10.129179582764079</v>
+        <v>-5.135038906398278</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -5487,19 +5485,19 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-6.6904704600452209</v>
+        <v>-5.3275268992996692</v>
       </c>
       <c r="C16">
-        <v>-5.6569289055739258</v>
+        <v>-7.3653696605543342</v>
       </c>
       <c r="D16">
-        <v>-10.47371284259828</v>
+        <v>-9.2994225570320079</v>
       </c>
       <c r="E16">
-        <v>-5.7108082645948919</v>
+        <v>-6.478265770217333</v>
       </c>
       <c r="F16">
-        <v>-9.0779587179161627</v>
+        <v>-7.9567928218306134</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -5507,19 +5505,19 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>-5.1531168984652744</v>
+        <v>-5.0101332274896517</v>
       </c>
       <c r="C17">
-        <v>-6.1004505814573378</v>
+        <v>-6.4562833598527112</v>
       </c>
       <c r="D17">
-        <v>-11.41124977969041</v>
+        <v>-9.6275649267817727</v>
       </c>
       <c r="E17">
-        <v>-5.025133545212924</v>
+        <v>-6.8739580481920353</v>
       </c>
       <c r="F17">
-        <v>-10.23648692835949</v>
+        <v>-6.205513736539686</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -5527,19 +5525,19 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>-5.6553286435650838</v>
+        <v>-6.7189175698589176</v>
       </c>
       <c r="C18">
-        <v>-6.4081611946034984</v>
+        <v>-5.5906278540669918</v>
       </c>
       <c r="D18">
-        <v>-12.028165151169951</v>
+        <v>-12.44297135143043</v>
       </c>
       <c r="E18">
-        <v>-6.3070728395438156</v>
+        <v>-7.7967436285774578</v>
       </c>
       <c r="F18">
-        <v>-9.6239522324994908</v>
+        <v>-5.604691405955017</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -5547,19 +5545,19 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>-6.0038288023423068</v>
+        <v>-6.5995174951012707</v>
       </c>
       <c r="C19">
-        <v>-5.9944327891821114</v>
+        <v>-6.5304360553599494</v>
       </c>
       <c r="D19">
-        <v>-8.6979657990605599</v>
+        <v>-8.5387050429992044</v>
       </c>
       <c r="E19">
-        <v>-6.2834249253616798</v>
+        <v>-5.5861049604728326</v>
       </c>
       <c r="F19">
-        <v>-9.0934441408879909</v>
+        <v>-5.8495513226593818</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -5567,19 +5565,19 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>-5.3543657790010188</v>
+        <v>-6.5314914701219697</v>
       </c>
       <c r="C20">
-        <v>-5.9976065829602563</v>
+        <v>-6.1967653848073114</v>
       </c>
       <c r="D20">
-        <v>-14.124671226951831</v>
+        <v>-10.680165959132619</v>
       </c>
       <c r="E20">
-        <v>-7.4669955835643966</v>
+        <v>-5.6103904393443704</v>
       </c>
       <c r="F20">
-        <v>-10.07575652663944</v>
+        <v>-4.3655843794028133</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -5587,19 +5585,19 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>-5.2023127066409227</v>
+        <v>-5.6468993322038932</v>
       </c>
       <c r="C21">
-        <v>-6.939252394669345</v>
+        <v>-6.4887746793971681</v>
       </c>
       <c r="D21">
-        <v>-15.11490000758136</v>
+        <v>-10.616487766953339</v>
       </c>
       <c r="E21">
-        <v>-6.0931459156646266</v>
+        <v>-5.3289675887587498</v>
       </c>
       <c r="F21">
-        <v>-10.286805874316711</v>
+        <v>-5.4001094462791492</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -5607,19 +5605,19 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>-7.516770805195228</v>
+        <v>-6.380038310943327</v>
       </c>
       <c r="C22">
-        <v>-5.8460488214248061</v>
+        <v>-6.0961067200935606</v>
       </c>
       <c r="D22">
-        <v>-8.6151084557440214</v>
+        <v>-12.811015073870021</v>
       </c>
       <c r="E22">
-        <v>-6.469076480862447</v>
+        <v>-5.1316700230428021</v>
       </c>
       <c r="F22">
-        <v>-9.7762372862862037</v>
+        <v>-6.3931473151387408</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -5627,19 +5625,19 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>-5.4640303698044921</v>
+        <v>-5.5217698917938112</v>
       </c>
       <c r="C23">
-        <v>-6.5855276138919621</v>
+        <v>-6.1736172984137312</v>
       </c>
       <c r="D23">
-        <v>-9.9129943776278395</v>
+        <v>-10.206450474315741</v>
       </c>
       <c r="E23">
-        <v>-4.5466392204926382</v>
+        <v>-5.2672744863197662</v>
       </c>
       <c r="F23">
-        <v>-9.8363363682979834</v>
+        <v>-6.1454397908704808</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -5647,19 +5645,19 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>-6.0145448117688183</v>
+        <v>-5.7530560841876346</v>
       </c>
       <c r="C24">
-        <v>-6.3282710051295501</v>
+        <v>-6.8929362351077694</v>
       </c>
       <c r="D24">
-        <v>-10.575580319104949</v>
+        <v>-8.4512096916689057</v>
       </c>
       <c r="E24">
-        <v>-6.744427093170585</v>
+        <v>-6.710018581648197</v>
       </c>
       <c r="F24">
-        <v>-8.3899199327645562</v>
+        <v>-5.7558497052921043</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -5667,19 +5665,19 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>-6.3864580538629623</v>
+        <v>-6.2165801926237707</v>
       </c>
       <c r="C25">
-        <v>-5.9121536119963363</v>
+        <v>-6.3666286809738448</v>
       </c>
       <c r="D25">
-        <v>-9.6516171537870541</v>
+        <v>-9.5768030596730469</v>
       </c>
       <c r="E25">
-        <v>-6.0008496385151942</v>
+        <v>-5.2791914388383061</v>
       </c>
       <c r="F25">
-        <v>-8.3546932163066305</v>
+        <v>-5.7197046608645614</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -5687,19 +5685,19 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>-6.8168421768624112</v>
+        <v>-6.1484159045924001</v>
       </c>
       <c r="C26">
-        <v>-5.875630709481884</v>
+        <v>-6.3630465138412848</v>
       </c>
       <c r="D26">
-        <v>-10.40526196280404</v>
+        <v>-14.004827819375249</v>
       </c>
       <c r="E26">
-        <v>-5.0977047747879984</v>
+        <v>-6.8651619377798996</v>
       </c>
       <c r="F26">
-        <v>-9.5007444482104866</v>
+        <v>-4.8091008308758214</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -5707,19 +5705,19 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>-6.5598319425391827</v>
+        <v>-5.8546423266501986</v>
       </c>
       <c r="C27">
-        <v>-6.1906281297738799</v>
+        <v>-6.3724603159592927</v>
       </c>
       <c r="D27">
-        <v>-12.72293780340849</v>
+        <v>-12.708677737022629</v>
       </c>
       <c r="E27">
-        <v>-7.1176558661428437</v>
+        <v>-4.8376305370179908</v>
       </c>
       <c r="F27">
-        <v>-9.5907941882088732</v>
+        <v>-5.2060745682088632</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -5727,19 +5725,19 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>-5.5024340188253751</v>
+        <v>-5.7403534109826309</v>
       </c>
       <c r="C28">
-        <v>-6.6914824905845451</v>
+        <v>-7.566352161100486</v>
       </c>
       <c r="D28">
-        <v>-11.435754101335</v>
+        <v>-10.079077694898981</v>
       </c>
       <c r="E28">
-        <v>-5.2345172574648071</v>
+        <v>-6.0528031620959899</v>
       </c>
       <c r="F28">
-        <v>-11.15270588134562</v>
+        <v>-5.0905100062827744</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -5747,19 +5745,19 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>-6.140887933921011</v>
+        <v>-7.4887798679500257</v>
       </c>
       <c r="C29">
-        <v>-6.7738063658599179</v>
+        <v>-6.1067064972946907</v>
       </c>
       <c r="D29">
-        <v>-9.5882266819867645</v>
+        <v>-8.7789323917815612</v>
       </c>
       <c r="E29">
-        <v>-6.0859188067857586</v>
+        <v>-6.2214554782739366</v>
       </c>
       <c r="F29">
-        <v>-10.25281839845486</v>
+        <v>-5.5698891196742739</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -5767,19 +5765,19 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>-5.4575836421633097</v>
+        <v>-5.8239227208764106</v>
       </c>
       <c r="C30">
-        <v>-5.48301482063754</v>
+        <v>-6.2079837027063967</v>
       </c>
       <c r="D30">
-        <v>-13.12265305712044</v>
+        <v>-12.10558036536446</v>
       </c>
       <c r="E30">
-        <v>-8.0139298875478762</v>
+        <v>-7.0849067495547571</v>
       </c>
       <c r="F30">
-        <v>-9.3323798457109604</v>
+        <v>-6.3271702954553408</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -5787,19 +5785,19 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>-5.7816839651402736</v>
+        <v>-6.7630741626456912</v>
       </c>
       <c r="C31">
-        <v>-6.4141128619434093</v>
+        <v>-6.1886010203726629</v>
       </c>
       <c r="D31">
-        <v>-7.4590308724720256</v>
+        <v>-11.26634672255094</v>
       </c>
       <c r="E31">
-        <v>-7.7609060010853783</v>
+        <v>-5.5204677161670066</v>
       </c>
       <c r="F31">
-        <v>-10.192923470383899</v>
+        <v>-7.0241672564371829</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -5831,9 +5829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5841,7 +5837,7 @@
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -5869,19 +5865,19 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>22.73603196436153</v>
+        <v>80.93696573067254</v>
       </c>
       <c r="C2">
-        <v>298.1410815130829</v>
+        <v>251.79199689553161</v>
       </c>
       <c r="D2">
-        <v>102.9573759775638</v>
+        <v>37.125120114312978</v>
       </c>
       <c r="E2">
-        <v>64.557573513343741</v>
+        <v>63.537836673308242</v>
       </c>
       <c r="F2">
-        <v>5.9460768821799972</v>
+        <v>13.862624013607221</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -5889,19 +5885,19 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>84.404545530204558</v>
+        <v>58.426902660222673</v>
       </c>
       <c r="C3">
-        <v>258.56099826151819</v>
+        <v>315.76834126784888</v>
       </c>
       <c r="D3">
-        <v>88.823111303951023</v>
+        <v>46.862298949434198</v>
       </c>
       <c r="E3">
-        <v>38.763550309631754</v>
+        <v>34.781003457586657</v>
       </c>
       <c r="F3">
-        <v>5.611004535154458</v>
+        <v>10.85201881676568</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -5909,19 +5905,19 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>38.444027045470058</v>
+        <v>43.774094406028759</v>
       </c>
       <c r="C4">
-        <v>377.9158795279991</v>
+        <v>245.18681691087491</v>
       </c>
       <c r="D4">
-        <v>47.204893343397472</v>
+        <v>58.431744110951577</v>
       </c>
       <c r="E4">
-        <v>82.180426920903429</v>
+        <v>111.5802941724845</v>
       </c>
       <c r="F4">
-        <v>6.3094751396354489</v>
+        <v>8.3570074097763083</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -5929,19 +5925,19 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>22.695716602953151</v>
+        <v>101.30530522750171</v>
       </c>
       <c r="C5">
-        <v>239.5290430192662</v>
+        <v>347.8901781668967</v>
       </c>
       <c r="D5">
-        <v>64.640496740663551</v>
+        <v>122.56159483482099</v>
       </c>
       <c r="E5">
-        <v>91.282995455630981</v>
+        <v>65.755045089296601</v>
       </c>
       <c r="F5">
-        <v>6.0141322927807019</v>
+        <v>10.603795499644519</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -5949,19 +5945,19 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>54.314861388617032</v>
+        <v>77.270713557878508</v>
       </c>
       <c r="C6">
-        <v>318.76587442190481</v>
+        <v>230.48306402551921</v>
       </c>
       <c r="D6">
-        <v>56.301730517771539</v>
+        <v>75.982522852773542</v>
       </c>
       <c r="E6">
-        <v>52.592671250395313</v>
+        <v>74.572375962784164</v>
       </c>
       <c r="F6">
-        <v>7.4290392742239177</v>
+        <v>18.93036238764957</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -5969,19 +5965,19 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>81.409660296254515</v>
+        <v>57.667448259454467</v>
       </c>
       <c r="C7">
-        <v>290.38504516618269</v>
+        <v>281.8439859038433</v>
       </c>
       <c r="D7">
-        <v>64.574051674624513</v>
+        <v>24.511776471337701</v>
       </c>
       <c r="E7">
-        <v>90.379270453416922</v>
+        <v>88.504751449649518</v>
       </c>
       <c r="F7">
-        <v>7.0067159294373829</v>
+        <v>17.864323751001258</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -5989,19 +5985,19 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>43.885935737997087</v>
+        <v>51.067128897962228</v>
       </c>
       <c r="C8">
-        <v>297.29429691584829</v>
+        <v>249.21409745495461</v>
       </c>
       <c r="D8">
-        <v>35.971799628141888</v>
+        <v>104.4653892263633</v>
       </c>
       <c r="E8">
-        <v>58.221751954018309</v>
+        <v>65.535715203864541</v>
       </c>
       <c r="F8">
-        <v>6.4743640893608418</v>
+        <v>17.55336479870714</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -6009,19 +6005,19 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>72.728495203292155</v>
+        <v>85.848558445065009</v>
       </c>
       <c r="C9">
-        <v>329.42676859468878</v>
+        <v>356.61119024653641</v>
       </c>
       <c r="D9">
-        <v>62.899866254182662</v>
+        <v>62.528329103682857</v>
       </c>
       <c r="E9">
-        <v>55.614639897517158</v>
+        <v>44.191702591578412</v>
       </c>
       <c r="F9">
-        <v>4.7650866828737923</v>
+        <v>15.144303420955859</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -6029,19 +6025,19 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>74.710419262346065</v>
+        <v>54.436320777647339</v>
       </c>
       <c r="C10">
-        <v>291.46011697519879</v>
+        <v>189.85350269606641</v>
       </c>
       <c r="D10">
-        <v>98.041564201932118</v>
+        <v>47.435455408276098</v>
       </c>
       <c r="E10">
-        <v>40.399769742966221</v>
+        <v>51.384829754276531</v>
       </c>
       <c r="F10">
-        <v>6.7221846618191963</v>
+        <v>15.01962750871993</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -6049,19 +6045,19 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>88.809767526014213</v>
+        <v>63.610653766256</v>
       </c>
       <c r="C11">
-        <v>223.3715287377357</v>
+        <v>334.91943965613808</v>
       </c>
       <c r="D11">
-        <v>72.688043542551085</v>
+        <v>76.949048890805514</v>
       </c>
       <c r="E11">
-        <v>68.890100913762524</v>
+        <v>93.18101050686677</v>
       </c>
       <c r="F11">
-        <v>7.8095774377645473</v>
+        <v>9.3206557495517792</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -6069,19 +6065,19 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>51.64805965958292</v>
+        <v>82.027446129207988</v>
       </c>
       <c r="C12">
-        <v>293.89425315129989</v>
+        <v>320.21411279539558</v>
       </c>
       <c r="D12">
-        <v>48.0931503204677</v>
+        <v>34.643339629647457</v>
       </c>
       <c r="E12">
-        <v>60.838799236084903</v>
+        <v>53.25710583206051</v>
       </c>
       <c r="F12">
-        <v>6.95285813500643</v>
+        <v>11.83464841833235</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -6089,19 +6085,19 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>42.46102660845559</v>
+        <v>104.8391475390048</v>
       </c>
       <c r="C13">
-        <v>285.83703248637261</v>
+        <v>378.89114024149148</v>
       </c>
       <c r="D13">
-        <v>56.168854517999939</v>
+        <v>34.9600318097458</v>
       </c>
       <c r="E13">
-        <v>83.858765255175285</v>
+        <v>47.515573741836278</v>
       </c>
       <c r="F13">
-        <v>5.9496357588772772</v>
+        <v>17.726616461138331</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -6109,19 +6105,19 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>97.669366769868475</v>
+        <v>34.128431299291833</v>
       </c>
       <c r="C14">
-        <v>329.84638783346531</v>
+        <v>334.65755213011801</v>
       </c>
       <c r="D14">
-        <v>52.704127010618848</v>
+        <v>25.431990852294341</v>
       </c>
       <c r="E14">
-        <v>62.04833214580627</v>
+        <v>50.220336858434003</v>
       </c>
       <c r="F14">
-        <v>7.0762138870321456</v>
+        <v>10.99412882970443</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -6129,19 +6125,19 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>37.996484886148252</v>
+        <v>42.320939220800717</v>
       </c>
       <c r="C15">
-        <v>315.56782771815028</v>
+        <v>304.01196996527688</v>
       </c>
       <c r="D15">
-        <v>51.999965233539683</v>
+        <v>51.083039828137558</v>
       </c>
       <c r="E15">
-        <v>48.631517150668557</v>
+        <v>84.727182254800553</v>
       </c>
       <c r="F15">
-        <v>4.8347193831077702</v>
+        <v>7.8492600814759417</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -6149,19 +6145,19 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>74.577187557966056</v>
+        <v>57.102800229526189</v>
       </c>
       <c r="C16">
-        <v>232.51253224577709</v>
+        <v>367.8392456974662</v>
       </c>
       <c r="D16">
-        <v>69.064126541928047</v>
+        <v>84.65450663383379</v>
       </c>
       <c r="E16">
-        <v>49.943596567201517</v>
+        <v>80.273157229554187</v>
       </c>
       <c r="F16">
-        <v>7.9748132596389461</v>
+        <v>11.823369149153621</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -6169,19 +6165,19 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>79.711409832874054</v>
+        <v>36.632873540665159</v>
       </c>
       <c r="C17">
-        <v>309.33112673456242</v>
+        <v>336.19370433032822</v>
       </c>
       <c r="D17">
-        <v>57.612940904098792</v>
+        <v>41.864136929089653</v>
       </c>
       <c r="E17">
-        <v>79.248300615357181</v>
+        <v>56.863941222978717</v>
       </c>
       <c r="F17">
-        <v>6.3997898305221739</v>
+        <v>12.036034562891221</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -6189,19 +6185,19 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>56.645392208873957</v>
+        <v>54.413738096911104</v>
       </c>
       <c r="C18">
-        <v>156.67272875784931</v>
+        <v>234.17610761786969</v>
       </c>
       <c r="D18">
-        <v>47.982111939792468</v>
+        <v>29.42035980872166</v>
       </c>
       <c r="E18">
-        <v>59.756266120648043</v>
+        <v>63.827595125913568</v>
       </c>
       <c r="F18">
-        <v>7.3552343645008254</v>
+        <v>13.29525294288425</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -6209,19 +6205,19 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>49.439547506491337</v>
+        <v>64.771390953210386</v>
       </c>
       <c r="C19">
-        <v>238.7630967763221</v>
+        <v>373.56099779229419</v>
       </c>
       <c r="D19">
-        <v>36.052299426094478</v>
+        <v>57.485817171857832</v>
       </c>
       <c r="E19">
-        <v>45.562866289873689</v>
+        <v>59.109445935020581</v>
       </c>
       <c r="F19">
-        <v>6.9747766325138443</v>
+        <v>12.587370522687671</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -6229,19 +6225,19 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>37.957127749114683</v>
+        <v>43.752528144997108</v>
       </c>
       <c r="C20">
-        <v>372.0912374769851</v>
+        <v>310.99078097896449</v>
       </c>
       <c r="D20">
-        <v>61.283618664296043</v>
+        <v>62.366038103374983</v>
       </c>
       <c r="E20">
-        <v>105.4741784395336</v>
+        <v>70.80102468737401</v>
       </c>
       <c r="F20">
-        <v>7.2755629035636504</v>
+        <v>21.75061591203324</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -6249,19 +6245,19 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>43.627296711097429</v>
+        <v>68.984679564423487</v>
       </c>
       <c r="C21">
-        <v>294.1027111301363</v>
+        <v>345.88267995435268</v>
       </c>
       <c r="D21">
-        <v>74.316034465985524</v>
+        <v>67.813595032765107</v>
       </c>
       <c r="E21">
-        <v>37.280271013839041</v>
+        <v>42.23947273911913</v>
       </c>
       <c r="F21">
-        <v>5.7034128603003316</v>
+        <v>16.869124761971669</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -6269,19 +6265,19 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>82.703703973362479</v>
+        <v>34.605473982050867</v>
       </c>
       <c r="C22">
-        <v>281.02480306647851</v>
+        <v>378.82445069993258</v>
       </c>
       <c r="D22">
-        <v>39.543448284808157</v>
+        <v>30.318242144272809</v>
       </c>
       <c r="E22">
-        <v>90.056691511839091</v>
+        <v>47.961914310054958</v>
       </c>
       <c r="F22">
-        <v>6.7699087615310223</v>
+        <v>9.4417693090587687</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -6289,19 +6285,19 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>80.871685950713257</v>
+        <v>68.854313171257658</v>
       </c>
       <c r="C23">
-        <v>237.89815039081469</v>
+        <v>355.511521940536</v>
       </c>
       <c r="D23">
-        <v>108.8105055539678</v>
+        <v>56.530664258980153</v>
       </c>
       <c r="E23">
-        <v>94.11991181956698</v>
+        <v>60.641137049160257</v>
       </c>
       <c r="F23">
-        <v>5.0994243811113726</v>
+        <v>12.429249814233311</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -6309,19 +6305,19 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>65.701133464691154</v>
+        <v>60.998399127907078</v>
       </c>
       <c r="C24">
-        <v>231.13887659027009</v>
+        <v>170.78372817376379</v>
       </c>
       <c r="D24">
-        <v>114.1089826882552</v>
+        <v>66.397700143125149</v>
       </c>
       <c r="E24">
-        <v>97.032022529003598</v>
+        <v>62.388060585107688</v>
       </c>
       <c r="F24">
-        <v>4.8979473925424379</v>
+        <v>23.605550659001342</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -6329,19 +6325,19 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>53.240335798364661</v>
+        <v>47.628424402625733</v>
       </c>
       <c r="C25">
-        <v>340.62331974384603</v>
+        <v>300.69684247018603</v>
       </c>
       <c r="D25">
-        <v>50.711021054906382</v>
+        <v>45.646148180467733</v>
       </c>
       <c r="E25">
-        <v>79.10923683579577</v>
+        <v>54.475907573660578</v>
       </c>
       <c r="F25">
-        <v>5.5346494388175023</v>
+        <v>11.86276011920587</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -6349,19 +6345,19 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>74.350670772954018</v>
+        <v>45.731182192105571</v>
       </c>
       <c r="C26">
-        <v>289.37446128108508</v>
+        <v>233.32904765120099</v>
       </c>
       <c r="D26">
-        <v>41.167146639423407</v>
+        <v>65.336955222720007</v>
       </c>
       <c r="E26">
-        <v>68.243401546217669</v>
+        <v>71.688908248562612</v>
       </c>
       <c r="F26">
-        <v>7.1634244892153252</v>
+        <v>15.65710745651468</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -6369,19 +6365,19 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>42.410637656621311</v>
+        <v>47.58599338252953</v>
       </c>
       <c r="C27">
-        <v>385.17903075230049</v>
+        <v>285.93667878501498</v>
       </c>
       <c r="D27">
-        <v>72.595704729790981</v>
+        <v>68.645020259408696</v>
       </c>
       <c r="E27">
-        <v>30.27023446175242</v>
+        <v>48.047761137780341</v>
       </c>
       <c r="F27">
-        <v>6.4285878407461334</v>
+        <v>14.84064412161589</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -6389,19 +6385,19 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>57.056122582654631</v>
+        <v>61.107360523373032</v>
       </c>
       <c r="C28">
-        <v>278.22870732885798</v>
+        <v>229.46512593641339</v>
       </c>
       <c r="D28">
-        <v>42.102345676258921</v>
+        <v>80.928832409427741</v>
       </c>
       <c r="E28">
-        <v>49.113078721821793</v>
+        <v>59.097716392309557</v>
       </c>
       <c r="F28">
-        <v>8.0369367028486529</v>
+        <v>15.76526278680719</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -6409,19 +6405,19 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>57.444946421665882</v>
+        <v>37.945098181418182</v>
       </c>
       <c r="C29">
-        <v>318.61113871209238</v>
+        <v>348.42946104607603</v>
       </c>
       <c r="D29">
-        <v>60.910647563681749</v>
+        <v>30.618776561819089</v>
       </c>
       <c r="E29">
-        <v>25.159321702776321</v>
+        <v>57.002713839678279</v>
       </c>
       <c r="F29">
-        <v>7.6177054849181456</v>
+        <v>16.096752380183631</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -6429,19 +6425,19 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>59.767902586279149</v>
+        <v>38.579694777894503</v>
       </c>
       <c r="C30">
-        <v>368.96617334177029</v>
+        <v>261.92243042663102</v>
       </c>
       <c r="D30">
-        <v>56.31764564589335</v>
+        <v>36.464715143849432</v>
       </c>
       <c r="E30">
-        <v>64.783777331302716</v>
+        <v>69.238865843709192</v>
       </c>
       <c r="F30">
-        <v>7.4417943204086319</v>
+        <v>16.64927949211404</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -6449,19 +6445,19 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>55.091296639509629</v>
+        <v>39.056150648286987</v>
       </c>
       <c r="C31">
-        <v>330.73292996906548</v>
+        <v>348.18427564731138</v>
       </c>
       <c r="D31">
-        <v>85.706863847386117</v>
+        <v>59.384252977126962</v>
       </c>
       <c r="E31">
-        <v>75.747880296012625</v>
+        <v>68.738461413347324</v>
       </c>
       <c r="F31">
-        <v>6.7236295844681244</v>
+        <v>18.468910047274811</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
